--- a/BackTest/2020-01-25 BackTest FNB.xlsx
+++ b/BackTest/2020-01-25 BackTest FNB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-13584600.4814</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-13584854.4014</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>2.139</v>
@@ -521,7 +521,7 @@
         <v>-13584854.4014</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>2.09</v>
@@ -562,7 +562,7 @@
         <v>-13603751.2363</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>2.09</v>
@@ -603,7 +603,7 @@
         <v>-13603751.2363</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>2.077</v>
@@ -644,7 +644,7 @@
         <v>-13602752.2363</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>2.077</v>
@@ -685,7 +685,7 @@
         <v>-13604084.2363</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>2.119</v>
@@ -726,7 +726,7 @@
         <v>-13603836.2363</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>2.085</v>
@@ -767,7 +767,7 @@
         <v>-13604502.2363</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>2.119</v>
@@ -808,7 +808,7 @@
         <v>-13270247.5583</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>2.086</v>
@@ -849,7 +849,7 @@
         <v>-13275205.95</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>2.144</v>
@@ -890,11 +890,9 @@
         <v>-13275205.95</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2.101</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
         <v>2.139</v>
       </c>
@@ -931,11 +929,9 @@
         <v>-13275205.95</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2.101</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
         <v>2.139</v>
       </c>
@@ -972,11 +968,9 @@
         <v>-13275205.95</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2.101</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
         <v>2.139</v>
       </c>
@@ -1091,7 +1085,7 @@
         <v>-13277830.243</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>2.101</v>
@@ -1132,11 +1126,9 @@
         <v>-13277830.243</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2.101</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
         <v>2.139</v>
       </c>
@@ -1173,11 +1165,9 @@
         <v>-13272790.2587</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2.101</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
         <v>2.139</v>
       </c>
@@ -1214,11 +1204,9 @@
         <v>-13273421.7329</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2.138</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
         <v>2.139</v>
       </c>
@@ -1255,11 +1243,9 @@
         <v>-13273021.7329</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2.101</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
         <v>2.139</v>
       </c>
@@ -1491,11 +1477,9 @@
         <v>-13966161.83329999</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="n">
-        <v>2.115</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
         <v>2.139</v>
       </c>
@@ -1532,11 +1516,9 @@
         <v>-13966161.83329999</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="n">
-        <v>2.115</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
         <v>2.139</v>
       </c>
@@ -1573,11 +1555,9 @@
         <v>-13952397.51329999</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" t="n">
-        <v>2.115</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
         <v>2.139</v>
       </c>
@@ -1614,11 +1594,9 @@
         <v>-13955141.06729999</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
-      </c>
-      <c r="I31" t="n">
-        <v>2.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
         <v>2.139</v>
       </c>
@@ -1655,11 +1633,9 @@
         <v>-13955141.06729999</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
-      </c>
-      <c r="I32" t="n">
-        <v>2.116</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
         <v>2.139</v>
       </c>
@@ -1735,11 +1711,9 @@
         <v>-13955141.06729999</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" t="n">
-        <v>2.116</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
         <v>2.139</v>
       </c>
@@ -1776,11 +1750,9 @@
         <v>-13955141.06729999</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" t="n">
-        <v>2.116</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
         <v>2.139</v>
       </c>
@@ -2168,11 +2140,9 @@
         <v>-13816069.76729999</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="n">
-        <v>2.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
         <v>2.139</v>
       </c>
@@ -2209,11 +2179,9 @@
         <v>-13572271.89999999</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="n">
-        <v>2.115</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
         <v>2.139</v>
       </c>
@@ -2250,11 +2218,9 @@
         <v>-13501955.25399999</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" t="n">
-        <v>2.127</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
         <v>2.139</v>
       </c>
@@ -2291,11 +2257,9 @@
         <v>-13501955.25399999</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" t="n">
-        <v>2.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
         <v>2.139</v>
       </c>
@@ -2371,11 +2335,9 @@
         <v>-13458292.23089999</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" t="n">
-        <v>2.127</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
         <v>2.139</v>
       </c>
@@ -2412,11 +2374,9 @@
         <v>-13474978.20249999</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
-      </c>
-      <c r="I51" t="n">
-        <v>2.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
         <v>2.139</v>
       </c>
@@ -2453,11 +2413,9 @@
         <v>-13474645.20249999</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" t="n">
-        <v>2.128</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
         <v>2.139</v>
       </c>
@@ -2494,11 +2452,9 @@
         <v>-13474645.20249999</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
-      </c>
-      <c r="I53" t="n">
-        <v>2.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
         <v>2.139</v>
       </c>
@@ -2535,11 +2491,9 @@
         <v>-13476426.18109999</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
-      </c>
-      <c r="I54" t="n">
-        <v>2.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
         <v>2.139</v>
       </c>
@@ -2615,11 +2569,9 @@
         <v>-13476426.18109999</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" t="n">
-        <v>2.127</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
         <v>2.139</v>
       </c>
@@ -2656,11 +2608,9 @@
         <v>-13475427.18109999</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
-      </c>
-      <c r="I57" t="n">
-        <v>2.127</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
         <v>2.139</v>
       </c>
@@ -2697,11 +2647,9 @@
         <v>-13475427.18109999</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
-      </c>
-      <c r="I58" t="n">
-        <v>2.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
         <v>2.139</v>
       </c>
@@ -2777,11 +2725,9 @@
         <v>-13475427.18109999</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
-      </c>
-      <c r="I60" t="n">
-        <v>2.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
         <v>2.139</v>
       </c>
@@ -2818,11 +2764,9 @@
         <v>-13476093.18109999</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
-      </c>
-      <c r="I61" t="n">
-        <v>2.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
         <v>2.139</v>
       </c>
@@ -2898,11 +2842,9 @@
         <v>-13475760.18109999</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
-      </c>
-      <c r="I63" t="n">
-        <v>2.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
         <v>2.139</v>
       </c>
@@ -2978,11 +2920,9 @@
         <v>-14393087.48259999</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
-      </c>
-      <c r="I65" t="n">
-        <v>2.127</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
         <v>2.139</v>
       </c>
@@ -3292,11 +3232,9 @@
         <v>-14154941.84043567</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
-      </c>
-      <c r="I73" t="n">
-        <v>2.144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
         <v>2.139</v>
       </c>
@@ -3333,11 +3271,9 @@
         <v>-14154941.84043567</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
-      </c>
-      <c r="I74" t="n">
-        <v>2.144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
         <v>2.139</v>
       </c>
@@ -3452,11 +3388,9 @@
         <v>-14153765.94363567</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
-      </c>
-      <c r="I77" t="n">
-        <v>2.147</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
         <v>2.139</v>
       </c>
@@ -3493,11 +3427,9 @@
         <v>-14153765.94363567</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
-      </c>
-      <c r="I78" t="n">
-        <v>2.144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
         <v>2.139</v>
       </c>
@@ -3534,11 +3466,9 @@
         <v>-14153765.94363567</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
-      </c>
-      <c r="I79" t="n">
-        <v>2.144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
         <v>2.139</v>
       </c>
@@ -3575,11 +3505,9 @@
         <v>-14153448.93893567</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
-      </c>
-      <c r="I80" t="n">
-        <v>2.144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
         <v>2.139</v>
       </c>
@@ -3616,11 +3544,9 @@
         <v>-14153448.93893567</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
-      </c>
-      <c r="I81" t="n">
-        <v>2.147</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
         <v>2.139</v>
       </c>
@@ -3657,11 +3583,9 @@
         <v>-14158990.71793567</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
-      </c>
-      <c r="I82" t="n">
-        <v>2.147</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
         <v>2.139</v>
       </c>
@@ -7520,11 +7444,9 @@
         <v>-15398059.84493567</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
-      </c>
-      <c r="I181" t="n">
-        <v>2.113</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
         <v>2.139</v>
       </c>
@@ -7561,11 +7483,9 @@
         <v>-15398059.84493567</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
-      </c>
-      <c r="I182" t="n">
-        <v>2.123</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
         <v>2.139</v>
       </c>
@@ -7602,11 +7522,9 @@
         <v>-15398688.72443567</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
-      </c>
-      <c r="I183" t="n">
-        <v>2.123</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
         <v>2.139</v>
       </c>
@@ -7643,11 +7561,9 @@
         <v>-15398688.72443567</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
-      </c>
-      <c r="I184" t="n">
-        <v>2.114</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
         <v>2.139</v>
       </c>
@@ -7684,11 +7600,9 @@
         <v>-15398022.72443567</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
-      </c>
-      <c r="I185" t="n">
-        <v>2.114</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
         <v>2.139</v>
       </c>
@@ -7725,11 +7639,9 @@
         <v>-15398806.41913567</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
-      </c>
-      <c r="I186" t="n">
-        <v>2.122</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
         <v>2.139</v>
       </c>
@@ -9131,11 +9043,9 @@
         <v>-16581623.45883567</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
-      </c>
-      <c r="I222" t="n">
-        <v>2.114</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
         <v>2.139</v>
       </c>
@@ -9172,11 +9082,9 @@
         <v>-16581623.45883567</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
-      </c>
-      <c r="I223" t="n">
-        <v>2.139</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
         <v>2.139</v>
       </c>
@@ -9213,11 +9121,9 @@
         <v>-16581123.45883567</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
-      </c>
-      <c r="I224" t="n">
-        <v>2.139</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
         <v>2.139</v>
       </c>
@@ -10892,9 +10798,11 @@
         <v>-28594912.25146203</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>2.145</v>
+      </c>
       <c r="J267" t="n">
         <v>2.139</v>
       </c>
@@ -10970,9 +10878,11 @@
         <v>-28595578.25146203</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>2.145</v>
+      </c>
       <c r="J269" t="n">
         <v>2.139</v>
       </c>
@@ -11516,9 +11426,11 @@
         <v>-27965208.15546203</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>2.15</v>
+      </c>
       <c r="J283" t="n">
         <v>2.139</v>
       </c>
@@ -11945,9 +11857,11 @@
         <v>-28810327.67396203</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>2.143</v>
+      </c>
       <c r="J294" t="n">
         <v>2.139</v>
       </c>
@@ -11984,9 +11898,11 @@
         <v>-28809661.67396203</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>2.143</v>
+      </c>
       <c r="J295" t="n">
         <v>2.139</v>
       </c>
@@ -12062,9 +11978,11 @@
         <v>-28810660.67396203</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>2.143</v>
+      </c>
       <c r="J297" t="n">
         <v>2.139</v>
       </c>
@@ -13193,9 +13111,11 @@
         <v>-33505905.32846203</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>2.124</v>
+      </c>
       <c r="J326" t="n">
         <v>2.139</v>
       </c>
@@ -13232,9 +13152,11 @@
         <v>-33505905.32846203</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I327" t="n">
+        <v>2.124</v>
+      </c>
       <c r="J327" t="n">
         <v>2.139</v>
       </c>
@@ -13271,9 +13193,11 @@
         <v>-33505905.32846203</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>2.124</v>
+      </c>
       <c r="J328" t="n">
         <v>2.139</v>
       </c>
@@ -13310,9 +13234,11 @@
         <v>-34492352.25896203</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>2.124</v>
+      </c>
       <c r="J329" t="n">
         <v>2.139</v>
       </c>
@@ -13349,9 +13275,11 @@
         <v>-34495593.06846203</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>2.122</v>
+      </c>
       <c r="J330" t="n">
         <v>2.139</v>
       </c>
@@ -13388,9 +13316,11 @@
         <v>-34495038.06846203</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>2.121</v>
+      </c>
       <c r="J331" t="n">
         <v>2.139</v>
       </c>
@@ -13427,9 +13357,11 @@
         <v>-34583926.06846203</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>2.155</v>
+      </c>
       <c r="J332" t="n">
         <v>2.139</v>
       </c>
@@ -13466,9 +13398,11 @@
         <v>-34621167.73176203</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>2.131</v>
+      </c>
       <c r="J333" t="n">
         <v>2.139</v>
       </c>
@@ -13505,9 +13439,11 @@
         <v>-34665845.68456203</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I334" t="n">
+        <v>2.13</v>
+      </c>
       <c r="J334" t="n">
         <v>2.139</v>
       </c>
@@ -13544,9 +13480,11 @@
         <v>-34684489.62856203</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>2.122</v>
+      </c>
       <c r="J335" t="n">
         <v>2.139</v>
       </c>
@@ -13583,9 +13521,11 @@
         <v>-34642540.75456203</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>2.121</v>
+      </c>
       <c r="J336" t="n">
         <v>2.139</v>
       </c>
@@ -13622,9 +13562,11 @@
         <v>-34642540.75456203</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>2.122</v>
+      </c>
       <c r="J337" t="n">
         <v>2.139</v>
       </c>
@@ -13661,9 +13603,11 @@
         <v>-34782786.91336203</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>2.122</v>
+      </c>
       <c r="J338" t="n">
         <v>2.139</v>
       </c>
@@ -13700,9 +13644,11 @@
         <v>-34782453.91336203</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>2.121</v>
+      </c>
       <c r="J339" t="n">
         <v>2.139</v>
       </c>
@@ -13739,9 +13685,11 @@
         <v>-34783999.20736203</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>2.13</v>
+      </c>
       <c r="J340" t="n">
         <v>2.139</v>
       </c>
@@ -13778,9 +13726,11 @@
         <v>-34716629.88486203</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>2.122</v>
+      </c>
       <c r="J341" t="n">
         <v>2.139</v>
       </c>
@@ -13817,9 +13767,11 @@
         <v>-34725614.92886203</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>2.13</v>
+      </c>
       <c r="J342" t="n">
         <v>2.139</v>
       </c>
@@ -13856,9 +13808,11 @@
         <v>-34725614.92886203</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>2.122</v>
+      </c>
       <c r="J343" t="n">
         <v>2.139</v>
       </c>
@@ -13895,9 +13849,11 @@
         <v>-34725614.92886203</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>2.122</v>
+      </c>
       <c r="J344" t="n">
         <v>2.139</v>
       </c>
@@ -13934,9 +13890,11 @@
         <v>-34725614.92886203</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>2.122</v>
+      </c>
       <c r="J345" t="n">
         <v>2.139</v>
       </c>
@@ -13973,9 +13931,11 @@
         <v>-34725614.92886203</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>2.122</v>
+      </c>
       <c r="J346" t="n">
         <v>2.139</v>
       </c>
@@ -14012,9 +13972,11 @@
         <v>-34725614.92886203</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>2.122</v>
+      </c>
       <c r="J347" t="n">
         <v>2.139</v>
       </c>
@@ -14051,9 +14013,11 @@
         <v>-34725614.92886203</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I348" t="n">
+        <v>2.122</v>
+      </c>
       <c r="J348" t="n">
         <v>2.139</v>
       </c>
@@ -14090,9 +14054,11 @@
         <v>-34725614.92886203</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I349" t="n">
+        <v>2.122</v>
+      </c>
       <c r="J349" t="n">
         <v>2.139</v>
       </c>
@@ -14129,9 +14095,11 @@
         <v>-34725614.92886203</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
+        <v>2.122</v>
+      </c>
       <c r="J350" t="n">
         <v>2.139</v>
       </c>
@@ -14168,9 +14136,11 @@
         <v>-34718319.72366203</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
+        <v>2.122</v>
+      </c>
       <c r="J351" t="n">
         <v>2.139</v>
       </c>
@@ -14207,9 +14177,11 @@
         <v>-34714373.14856203</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I352" t="n">
+        <v>2.126</v>
+      </c>
       <c r="J352" t="n">
         <v>2.139</v>
       </c>
@@ -14246,9 +14218,11 @@
         <v>-34713929.14856203</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I353" t="n">
+        <v>2.127</v>
+      </c>
       <c r="J353" t="n">
         <v>2.139</v>
       </c>
@@ -14285,9 +14259,11 @@
         <v>-34804197.13156203</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I354" t="n">
+        <v>2.148</v>
+      </c>
       <c r="J354" t="n">
         <v>2.139</v>
       </c>
@@ -14324,9 +14300,11 @@
         <v>-35491485.40566203</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I355" t="n">
+        <v>2.127</v>
+      </c>
       <c r="J355" t="n">
         <v>2.139</v>
       </c>
@@ -14363,9 +14341,11 @@
         <v>-35490819.40566203</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I356" t="n">
+        <v>2.122</v>
+      </c>
       <c r="J356" t="n">
         <v>2.139</v>
       </c>
@@ -14402,9 +14382,11 @@
         <v>-35454153.40566203</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I357" t="n">
+        <v>2.127</v>
+      </c>
       <c r="J357" t="n">
         <v>2.139</v>
       </c>
@@ -14441,9 +14423,11 @@
         <v>-35474344.64166203</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I358" t="n">
+        <v>2.147</v>
+      </c>
       <c r="J358" t="n">
         <v>2.139</v>
       </c>
@@ -14480,9 +14464,11 @@
         <v>-35474011.64166203</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I359" t="n">
+        <v>2.123</v>
+      </c>
       <c r="J359" t="n">
         <v>2.139</v>
       </c>
@@ -14519,9 +14505,11 @@
         <v>-35944533.37976203</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I360" t="n">
+        <v>2.147</v>
+      </c>
       <c r="J360" t="n">
         <v>2.139</v>
       </c>
@@ -14558,9 +14546,11 @@
         <v>-35944533.37976203</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>2.122</v>
+      </c>
       <c r="J361" t="n">
         <v>2.139</v>
       </c>
@@ -14597,9 +14587,11 @@
         <v>-35942311.37976203</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>2.122</v>
+      </c>
       <c r="J362" t="n">
         <v>2.139</v>
       </c>
@@ -14636,9 +14628,11 @@
         <v>-36177386.07036203</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>2.147</v>
+      </c>
       <c r="J363" t="n">
         <v>2.139</v>
       </c>
@@ -14675,9 +14669,11 @@
         <v>-36177386.07036203</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>2.122</v>
+      </c>
       <c r="J364" t="n">
         <v>2.139</v>
       </c>
@@ -14714,9 +14710,11 @@
         <v>-36155269.10596203</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I365" t="n">
+        <v>2.122</v>
+      </c>
       <c r="J365" t="n">
         <v>2.139</v>
       </c>
@@ -14753,9 +14751,11 @@
         <v>-36155269.10596203</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I366" t="n">
+        <v>2.135</v>
+      </c>
       <c r="J366" t="n">
         <v>2.139</v>
       </c>
@@ -14792,9 +14792,11 @@
         <v>-36155269.10596203</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I367" t="n">
+        <v>2.135</v>
+      </c>
       <c r="J367" t="n">
         <v>2.139</v>
       </c>
@@ -14831,9 +14833,11 @@
         <v>-36155269.10596203</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I368" t="n">
+        <v>2.135</v>
+      </c>
       <c r="J368" t="n">
         <v>2.139</v>
       </c>
@@ -14870,9 +14874,11 @@
         <v>-36155269.10596203</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I369" t="n">
+        <v>2.135</v>
+      </c>
       <c r="J369" t="n">
         <v>2.139</v>
       </c>
@@ -14909,9 +14915,11 @@
         <v>-36155269.10596203</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I370" t="n">
+        <v>2.135</v>
+      </c>
       <c r="J370" t="n">
         <v>2.139</v>
       </c>
@@ -14948,9 +14956,11 @@
         <v>-36155269.10596203</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I371" t="n">
+        <v>2.135</v>
+      </c>
       <c r="J371" t="n">
         <v>2.139</v>
       </c>
@@ -14987,9 +14997,11 @@
         <v>-36155269.10596203</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I372" t="n">
+        <v>2.135</v>
+      </c>
       <c r="J372" t="n">
         <v>2.139</v>
       </c>
@@ -15026,9 +15038,11 @@
         <v>-35906854.06396203</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I373" t="n">
+        <v>2.135</v>
+      </c>
       <c r="J373" t="n">
         <v>2.139</v>
       </c>
@@ -15065,9 +15079,11 @@
         <v>-35906854.06396203</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>2.15</v>
+      </c>
       <c r="J374" t="n">
         <v>2.139</v>
       </c>
@@ -15104,9 +15120,11 @@
         <v>-35907088.06396203</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>2.15</v>
+      </c>
       <c r="J375" t="n">
         <v>2.139</v>
       </c>
@@ -15143,9 +15161,11 @@
         <v>-35829370.06396203</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>2.137</v>
+      </c>
       <c r="J376" t="n">
         <v>2.139</v>
       </c>
@@ -15182,9 +15202,11 @@
         <v>-35829370.06396203</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>2.143</v>
+      </c>
       <c r="J377" t="n">
         <v>2.139</v>
       </c>
@@ -15221,9 +15243,11 @@
         <v>-35824705.06396203</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>2.143</v>
+      </c>
       <c r="J378" t="n">
         <v>2.139</v>
       </c>
@@ -15260,9 +15284,11 @@
         <v>-35601639.71136203</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>2.15</v>
+      </c>
       <c r="J379" t="n">
         <v>2.139</v>
       </c>
@@ -15299,9 +15325,11 @@
         <v>-35601639.71136203</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I380" t="n">
+        <v>2.155</v>
+      </c>
       <c r="J380" t="n">
         <v>2.139</v>
       </c>
@@ -15338,9 +15366,11 @@
         <v>-34069644.54176202</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I381" t="n">
+        <v>2.155</v>
+      </c>
       <c r="J381" t="n">
         <v>2.139</v>
       </c>
@@ -15377,9 +15407,11 @@
         <v>-34385460.76426202</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I382" t="n">
+        <v>2.158</v>
+      </c>
       <c r="J382" t="n">
         <v>2.139</v>
       </c>
@@ -15416,9 +15448,11 @@
         <v>-35034139.23086202</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>2.144</v>
+      </c>
       <c r="J383" t="n">
         <v>2.139</v>
       </c>
@@ -15455,9 +15489,11 @@
         <v>-34940633.45246202</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I384" t="n">
+        <v>2.143</v>
+      </c>
       <c r="J384" t="n">
         <v>2.139</v>
       </c>
@@ -15494,9 +15530,11 @@
         <v>-34940633.45246202</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>2.144</v>
+      </c>
       <c r="J385" t="n">
         <v>2.139</v>
       </c>
@@ -15533,9 +15571,11 @@
         <v>-34940633.45246202</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I386" t="n">
+        <v>2.144</v>
+      </c>
       <c r="J386" t="n">
         <v>2.139</v>
       </c>
@@ -15572,9 +15612,11 @@
         <v>-27274728.91626202</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I387" t="n">
+        <v>2.144</v>
+      </c>
       <c r="J387" t="n">
         <v>2.139</v>
       </c>
@@ -16040,7 +16082,7 @@
         <v>-20385077.40684643</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="n">
@@ -16820,7 +16862,7 @@
         <v>-31726447.75354643</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="n">
@@ -17054,7 +17096,7 @@
         <v>-35050168.06184643</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="n">
@@ -17171,7 +17213,7 @@
         <v>-37024837.41514643</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="n">
@@ -17210,7 +17252,7 @@
         <v>-37024837.41514643</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="n">
@@ -17249,7 +17291,7 @@
         <v>-37024603.41514643</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="n">
@@ -17288,7 +17330,7 @@
         <v>-36053121.19904643</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="n">
@@ -17366,7 +17408,7 @@
         <v>-32549075.57524642</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="n">
@@ -17522,7 +17564,7 @@
         <v>-32344772.84494643</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="n">
@@ -17600,7 +17642,7 @@
         <v>-33674754.12274642</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="n">
@@ -17678,7 +17720,7 @@
         <v>-33674530.12274642</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="n">
@@ -17717,7 +17759,7 @@
         <v>-35457378.11214642</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="n">
@@ -17756,7 +17798,7 @@
         <v>-34177199.48364642</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="n">
@@ -18302,7 +18344,7 @@
         <v>-28918371.92431464</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="n">
@@ -18341,7 +18383,7 @@
         <v>-25060741.04252904</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="n">
@@ -18380,7 +18422,7 @@
         <v>-22696900.50164642</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="n">
@@ -18419,7 +18461,7 @@
         <v>-26627969.61114642</v>
       </c>
       <c r="H460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="n">
@@ -18458,7 +18500,7 @@
         <v>-26470417.01654642</v>
       </c>
       <c r="H461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="n">
@@ -18497,7 +18539,7 @@
         <v>-26470417.01654642</v>
       </c>
       <c r="H462" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="n">
@@ -18505,15 +18547,13 @@
       </c>
       <c r="K462" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L462" t="n">
-        <v>1.08476157082749</v>
-      </c>
-      <c r="M462" t="n">
-        <v>1.029850746268657</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M462" t="inlineStr"/>
     </row>
     <row r="463">
       <c r="A463" s="1" t="n">
@@ -18541,8 +18581,14 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>2.139</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -18571,11 +18617,17 @@
         <v>-27485695.78414835</v>
       </c>
       <c r="H464" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>2.139</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -18604,11 +18656,17 @@
         <v>-26651235.73734835</v>
       </c>
       <c r="H465" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>2.139</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -18640,8 +18698,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>2.139</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -18673,8 +18737,14 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>2.139</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -18706,8 +18776,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>2.139</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -18736,11 +18812,17 @@
         <v>-26602644.65664835</v>
       </c>
       <c r="H469" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>2.139</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -18769,11 +18851,17 @@
         <v>-26602644.65664835</v>
       </c>
       <c r="H470" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>2.139</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -18802,11 +18890,17 @@
         <v>-26602644.65664835</v>
       </c>
       <c r="H471" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>2.139</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -18838,8 +18932,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>2.139</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -18871,8 +18971,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>2.139</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -18904,8 +19010,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>2.139</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -18937,8 +19049,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>2.139</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -18970,8 +19088,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>2.139</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -19003,8 +19127,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>2.139</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -19033,11 +19163,17 @@
         <v>-14720411.60364835</v>
       </c>
       <c r="H478" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>2.139</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -19066,11 +19202,17 @@
         <v>-15260981.82824835</v>
       </c>
       <c r="H479" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>2.139</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -19099,11 +19241,17 @@
         <v>-9479798.297248352</v>
       </c>
       <c r="H480" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>2.139</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -19132,11 +19280,17 @@
         <v>-8919155.525948353</v>
       </c>
       <c r="H481" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>2.139</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -19165,11 +19319,17 @@
         <v>-9779085.916293696</v>
       </c>
       <c r="H482" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>2.139</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -19198,11 +19358,17 @@
         <v>-9779085.916293696</v>
       </c>
       <c r="H483" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>2.139</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -19231,11 +19397,17 @@
         <v>-12053889.2316937</v>
       </c>
       <c r="H484" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>2.139</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -19264,11 +19436,17 @@
         <v>-12053889.2316937</v>
       </c>
       <c r="H485" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>2.139</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -19300,8 +19478,14 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>2.139</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -19333,8 +19517,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>2.139</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -19363,11 +19553,17 @@
         <v>-11303148.0722937</v>
       </c>
       <c r="H488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>2.139</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -19399,8 +19595,14 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>2.139</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -19429,15 +19631,23 @@
         <v>-9351579.652154252</v>
       </c>
       <c r="H490" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>2.139</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L490" t="n">
-        <v>1</v>
-      </c>
-      <c r="M490" t="inlineStr"/>
+        <v>1.124032258064516</v>
+      </c>
+      <c r="M490" t="n">
+        <v>1.029850746268657</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" s="1" t="n">
@@ -19462,7 +19672,7 @@
         <v>-9878883.154099593</v>
       </c>
       <c r="H491" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -19495,7 +19705,7 @@
         <v>-4682001.154499593</v>
       </c>
       <c r="H492" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -19528,7 +19738,7 @@
         <v>-7684949.777399593</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -19561,7 +19771,7 @@
         <v>-7010484.32268699</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -19594,7 +19804,7 @@
         <v>-7495978.28518699</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -19627,7 +19837,7 @@
         <v>-1982144.39358699</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -19638,6 +19848,6 @@
       <c r="M496" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest FNB.xlsx
+++ b/BackTest/2020-01-25 BackTest FNB.xlsx
@@ -10846,14 +10846,10 @@
         <v>-29100742.52866203</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
-      </c>
-      <c r="I317" t="n">
-        <v>2.138</v>
-      </c>
-      <c r="J317" t="n">
-        <v>2.138</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
@@ -10886,14 +10882,8 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>2.138</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -10925,14 +10915,8 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>2.138</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -10961,960 +10945,776 @@
         <v>-32287321.27896203</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
-      </c>
-      <c r="I320" t="n">
-        <v>2.136</v>
-      </c>
-      <c r="J320" t="n">
-        <v>2.138</v>
-      </c>
-      <c r="K320" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="n">
+        <v>2.128</v>
+      </c>
+      <c r="C321" t="n">
+        <v>2.128</v>
+      </c>
+      <c r="D321" t="n">
+        <v>2.128</v>
+      </c>
+      <c r="E321" t="n">
+        <v>2.128</v>
+      </c>
+      <c r="F321" t="n">
+        <v>332789.9625</v>
+      </c>
+      <c r="G321" t="n">
+        <v>-32620111.24146203</v>
+      </c>
+      <c r="H321" t="n">
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="n">
+        <v>2.127</v>
+      </c>
+      <c r="C322" t="n">
+        <v>2.126</v>
+      </c>
+      <c r="D322" t="n">
+        <v>2.127</v>
+      </c>
+      <c r="E322" t="n">
+        <v>2.126</v>
+      </c>
+      <c r="F322" t="n">
+        <v>118584.0495</v>
+      </c>
+      <c r="G322" t="n">
+        <v>-32738695.29096203</v>
+      </c>
+      <c r="H322" t="n">
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="n">
+        <v>2.126</v>
+      </c>
+      <c r="C323" t="n">
+        <v>2.126</v>
+      </c>
+      <c r="D323" t="n">
+        <v>2.126</v>
+      </c>
+      <c r="E323" t="n">
+        <v>2.126</v>
+      </c>
+      <c r="F323" t="n">
+        <v>30938.2062</v>
+      </c>
+      <c r="G323" t="n">
+        <v>-32738695.29096203</v>
+      </c>
+      <c r="H323" t="n">
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="n">
+        <v>2.125</v>
+      </c>
+      <c r="C324" t="n">
+        <v>2.124</v>
+      </c>
+      <c r="D324" t="n">
+        <v>2.125</v>
+      </c>
+      <c r="E324" t="n">
+        <v>2.124</v>
+      </c>
+      <c r="F324" t="n">
+        <v>767210.0375</v>
+      </c>
+      <c r="G324" t="n">
+        <v>-33505905.32846203</v>
+      </c>
+      <c r="H324" t="n">
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="n">
+        <v>2.124</v>
+      </c>
+      <c r="C325" t="n">
+        <v>2.124</v>
+      </c>
+      <c r="D325" t="n">
+        <v>2.124</v>
+      </c>
+      <c r="E325" t="n">
+        <v>2.124</v>
+      </c>
+      <c r="F325" t="n">
+        <v>23540.4897</v>
+      </c>
+      <c r="G325" t="n">
+        <v>-33505905.32846203</v>
+      </c>
+      <c r="H325" t="n">
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="n">
+        <v>2.124</v>
+      </c>
+      <c r="C326" t="n">
+        <v>2.124</v>
+      </c>
+      <c r="D326" t="n">
+        <v>2.124</v>
+      </c>
+      <c r="E326" t="n">
+        <v>2.124</v>
+      </c>
+      <c r="F326" t="n">
+        <v>234444.8682</v>
+      </c>
+      <c r="G326" t="n">
+        <v>-33505905.32846203</v>
+      </c>
+      <c r="H326" t="n">
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="n">
+        <v>2.124</v>
+      </c>
+      <c r="C327" t="n">
+        <v>2.124</v>
+      </c>
+      <c r="D327" t="n">
+        <v>2.124</v>
+      </c>
+      <c r="E327" t="n">
+        <v>2.124</v>
+      </c>
+      <c r="F327" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G327" t="n">
+        <v>-33505905.32846203</v>
+      </c>
+      <c r="H327" t="n">
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="n">
+        <v>2.125</v>
+      </c>
+      <c r="C328" t="n">
+        <v>2.124</v>
+      </c>
+      <c r="D328" t="n">
+        <v>2.125</v>
+      </c>
+      <c r="E328" t="n">
+        <v>2.124</v>
+      </c>
+      <c r="F328" t="n">
+        <v>600000</v>
+      </c>
+      <c r="G328" t="n">
+        <v>-33505905.32846203</v>
+      </c>
+      <c r="H328" t="n">
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="n">
+        <v>2.124</v>
+      </c>
+      <c r="C329" t="n">
+        <v>2.122</v>
+      </c>
+      <c r="D329" t="n">
+        <v>2.124</v>
+      </c>
+      <c r="E329" t="n">
+        <v>2.122</v>
+      </c>
+      <c r="F329" t="n">
+        <v>986446.9305</v>
+      </c>
+      <c r="G329" t="n">
+        <v>-34492352.25896203</v>
+      </c>
+      <c r="H329" t="n">
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="n">
+        <v>2.121</v>
+      </c>
+      <c r="C330" t="n">
+        <v>2.121</v>
+      </c>
+      <c r="D330" t="n">
+        <v>2.121</v>
+      </c>
+      <c r="E330" t="n">
+        <v>2.121</v>
+      </c>
+      <c r="F330" t="n">
+        <v>3240.8095</v>
+      </c>
+      <c r="G330" t="n">
+        <v>-34495593.06846203</v>
+      </c>
+      <c r="H330" t="n">
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="n">
+        <v>2.155</v>
+      </c>
+      <c r="C331" t="n">
+        <v>2.155</v>
+      </c>
+      <c r="D331" t="n">
+        <v>2.155</v>
+      </c>
+      <c r="E331" t="n">
+        <v>2.155</v>
+      </c>
+      <c r="F331" t="n">
+        <v>555</v>
+      </c>
+      <c r="G331" t="n">
+        <v>-34495038.06846203</v>
+      </c>
+      <c r="H331" t="n">
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="n">
+        <v>2.131</v>
+      </c>
+      <c r="C332" t="n">
+        <v>2.131</v>
+      </c>
+      <c r="D332" t="n">
+        <v>2.131</v>
+      </c>
+      <c r="E332" t="n">
+        <v>2.131</v>
+      </c>
+      <c r="F332" t="n">
+        <v>88888</v>
+      </c>
+      <c r="G332" t="n">
+        <v>-34583926.06846203</v>
+      </c>
+      <c r="H332" t="n">
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="n">
+        <v>2.154</v>
+      </c>
+      <c r="C333" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="D333" t="n">
+        <v>2.154</v>
+      </c>
+      <c r="E333" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="F333" t="n">
+        <v>37241.6633</v>
+      </c>
+      <c r="G333" t="n">
+        <v>-34621167.73176203</v>
+      </c>
+      <c r="H333" t="n">
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="n">
+        <v>2.122</v>
+      </c>
+      <c r="C334" t="n">
+        <v>2.122</v>
+      </c>
+      <c r="D334" t="n">
+        <v>2.122</v>
+      </c>
+      <c r="E334" t="n">
+        <v>2.122</v>
+      </c>
+      <c r="F334" t="n">
+        <v>44677.9528</v>
+      </c>
+      <c r="G334" t="n">
+        <v>-34665845.68456203</v>
+      </c>
+      <c r="H334" t="n">
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M334" t="inlineStr"/>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="n">
+        <v>2.121</v>
+      </c>
+      <c r="C335" t="n">
+        <v>2.121</v>
+      </c>
+      <c r="D335" t="n">
+        <v>2.121</v>
+      </c>
+      <c r="E335" t="n">
+        <v>2.121</v>
+      </c>
+      <c r="F335" t="n">
+        <v>18643.944</v>
+      </c>
+      <c r="G335" t="n">
+        <v>-34684489.62856203</v>
+      </c>
+      <c r="H335" t="n">
+        <v>0</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
+      <c r="L335" t="n">
+        <v>1</v>
+      </c>
+      <c r="M335" t="inlineStr"/>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="n">
+        <v>2.122</v>
+      </c>
+      <c r="C336" t="n">
+        <v>2.122</v>
+      </c>
+      <c r="D336" t="n">
+        <v>2.122</v>
+      </c>
+      <c r="E336" t="n">
+        <v>2.122</v>
+      </c>
+      <c r="F336" t="n">
+        <v>41948.874</v>
+      </c>
+      <c r="G336" t="n">
+        <v>-34642540.75456203</v>
+      </c>
+      <c r="H336" t="n">
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
+      <c r="L336" t="n">
+        <v>1</v>
+      </c>
+      <c r="M336" t="inlineStr"/>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="n">
+        <v>2.122</v>
+      </c>
+      <c r="C337" t="n">
+        <v>2.122</v>
+      </c>
+      <c r="D337" t="n">
+        <v>2.122</v>
+      </c>
+      <c r="E337" t="n">
+        <v>2.122</v>
+      </c>
+      <c r="F337" t="n">
+        <v>7973.7874</v>
+      </c>
+      <c r="G337" t="n">
+        <v>-34642540.75456203</v>
+      </c>
+      <c r="H337" t="n">
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
+      <c r="L337" t="n">
+        <v>1</v>
+      </c>
+      <c r="M337" t="inlineStr"/>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="n">
+        <v>2.121</v>
+      </c>
+      <c r="C338" t="n">
+        <v>2.121</v>
+      </c>
+      <c r="D338" t="n">
+        <v>2.121</v>
+      </c>
+      <c r="E338" t="n">
+        <v>2.121</v>
+      </c>
+      <c r="F338" t="n">
+        <v>140246.1588</v>
+      </c>
+      <c r="G338" t="n">
+        <v>-34782786.91336203</v>
+      </c>
+      <c r="H338" t="n">
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
+      <c r="L338" t="n">
+        <v>1</v>
+      </c>
+      <c r="M338" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="C339" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="D339" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="E339" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="F339" t="n">
+        <v>333</v>
+      </c>
+      <c r="G339" t="n">
+        <v>-34782453.91336203</v>
+      </c>
+      <c r="H339" t="n">
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
+      <c r="L339" t="n">
+        <v>1</v>
+      </c>
+      <c r="M339" t="inlineStr"/>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="n">
+        <v>2.122</v>
+      </c>
+      <c r="C340" t="n">
+        <v>2.122</v>
+      </c>
+      <c r="D340" t="n">
+        <v>2.122</v>
+      </c>
+      <c r="E340" t="n">
+        <v>2.122</v>
+      </c>
+      <c r="F340" t="n">
+        <v>1545.294</v>
+      </c>
+      <c r="G340" t="n">
+        <v>-34783999.20736203</v>
+      </c>
+      <c r="H340" t="n">
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
+      <c r="L340" t="n">
+        <v>1</v>
+      </c>
+      <c r="M340" t="inlineStr"/>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="C341" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="D341" t="n">
+        <v>2.149</v>
+      </c>
+      <c r="E341" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="F341" t="n">
+        <v>67369.32249999999</v>
+      </c>
+      <c r="G341" t="n">
+        <v>-34716629.88486203</v>
+      </c>
+      <c r="H341" t="n">
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="inlineStr"/>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="n">
+        <v>2.122</v>
+      </c>
+      <c r="C342" t="n">
+        <v>2.122</v>
+      </c>
+      <c r="D342" t="n">
+        <v>2.122</v>
+      </c>
+      <c r="E342" t="n">
+        <v>2.122</v>
+      </c>
+      <c r="F342" t="n">
+        <v>8985.044</v>
+      </c>
+      <c r="G342" t="n">
+        <v>-34725614.92886203</v>
+      </c>
+      <c r="H342" t="n">
+        <v>0</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
+      <c r="L342" t="n">
+        <v>1</v>
+      </c>
+      <c r="M342" t="inlineStr"/>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="n">
+        <v>2.122</v>
+      </c>
+      <c r="C343" t="n">
+        <v>2.122</v>
+      </c>
+      <c r="D343" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="E343" t="n">
+        <v>2.122</v>
+      </c>
+      <c r="F343" t="n">
+        <v>2997</v>
+      </c>
+      <c r="G343" t="n">
+        <v>-34725614.92886203</v>
+      </c>
+      <c r="H343" t="n">
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>2.122</v>
+      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L320" t="n">
-        <v>1</v>
-      </c>
-      <c r="M320" t="inlineStr"/>
-    </row>
-    <row r="321">
-      <c r="A321" s="1" t="n">
-        <v>319</v>
-      </c>
-      <c r="B321" t="n">
-        <v>2.128</v>
-      </c>
-      <c r="C321" t="n">
-        <v>2.128</v>
-      </c>
-      <c r="D321" t="n">
-        <v>2.128</v>
-      </c>
-      <c r="E321" t="n">
-        <v>2.128</v>
-      </c>
-      <c r="F321" t="n">
-        <v>332789.9625</v>
-      </c>
-      <c r="G321" t="n">
-        <v>-32620111.24146203</v>
-      </c>
-      <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>2.138</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L321" t="n">
-        <v>1</v>
-      </c>
-      <c r="M321" t="inlineStr"/>
-    </row>
-    <row r="322">
-      <c r="A322" s="1" t="n">
-        <v>320</v>
-      </c>
-      <c r="B322" t="n">
-        <v>2.127</v>
-      </c>
-      <c r="C322" t="n">
-        <v>2.126</v>
-      </c>
-      <c r="D322" t="n">
-        <v>2.127</v>
-      </c>
-      <c r="E322" t="n">
-        <v>2.126</v>
-      </c>
-      <c r="F322" t="n">
-        <v>118584.0495</v>
-      </c>
-      <c r="G322" t="n">
-        <v>-32738695.29096203</v>
-      </c>
-      <c r="H322" t="n">
-        <v>1</v>
-      </c>
-      <c r="I322" t="n">
-        <v>2.128</v>
-      </c>
-      <c r="J322" t="n">
-        <v>2.138</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L322" t="n">
-        <v>1</v>
-      </c>
-      <c r="M322" t="inlineStr"/>
-    </row>
-    <row r="323">
-      <c r="A323" s="1" t="n">
-        <v>321</v>
-      </c>
-      <c r="B323" t="n">
-        <v>2.126</v>
-      </c>
-      <c r="C323" t="n">
-        <v>2.126</v>
-      </c>
-      <c r="D323" t="n">
-        <v>2.126</v>
-      </c>
-      <c r="E323" t="n">
-        <v>2.126</v>
-      </c>
-      <c r="F323" t="n">
-        <v>30938.2062</v>
-      </c>
-      <c r="G323" t="n">
-        <v>-32738695.29096203</v>
-      </c>
-      <c r="H323" t="n">
-        <v>1</v>
-      </c>
-      <c r="I323" t="n">
-        <v>2.126</v>
-      </c>
-      <c r="J323" t="n">
-        <v>2.138</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L323" t="n">
-        <v>1</v>
-      </c>
-      <c r="M323" t="inlineStr"/>
-    </row>
-    <row r="324">
-      <c r="A324" s="1" t="n">
-        <v>322</v>
-      </c>
-      <c r="B324" t="n">
-        <v>2.125</v>
-      </c>
-      <c r="C324" t="n">
-        <v>2.124</v>
-      </c>
-      <c r="D324" t="n">
-        <v>2.125</v>
-      </c>
-      <c r="E324" t="n">
-        <v>2.124</v>
-      </c>
-      <c r="F324" t="n">
-        <v>767210.0375</v>
-      </c>
-      <c r="G324" t="n">
-        <v>-33505905.32846203</v>
-      </c>
-      <c r="H324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I324" t="n">
-        <v>2.126</v>
-      </c>
-      <c r="J324" t="n">
-        <v>2.138</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L324" t="n">
-        <v>1</v>
-      </c>
-      <c r="M324" t="inlineStr"/>
-    </row>
-    <row r="325">
-      <c r="A325" s="1" t="n">
-        <v>323</v>
-      </c>
-      <c r="B325" t="n">
-        <v>2.124</v>
-      </c>
-      <c r="C325" t="n">
-        <v>2.124</v>
-      </c>
-      <c r="D325" t="n">
-        <v>2.124</v>
-      </c>
-      <c r="E325" t="n">
-        <v>2.124</v>
-      </c>
-      <c r="F325" t="n">
-        <v>23540.4897</v>
-      </c>
-      <c r="G325" t="n">
-        <v>-33505905.32846203</v>
-      </c>
-      <c r="H325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I325" t="n">
-        <v>2.124</v>
-      </c>
-      <c r="J325" t="n">
-        <v>2.138</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L325" t="n">
-        <v>1</v>
-      </c>
-      <c r="M325" t="inlineStr"/>
-    </row>
-    <row r="326">
-      <c r="A326" s="1" t="n">
-        <v>324</v>
-      </c>
-      <c r="B326" t="n">
-        <v>2.124</v>
-      </c>
-      <c r="C326" t="n">
-        <v>2.124</v>
-      </c>
-      <c r="D326" t="n">
-        <v>2.124</v>
-      </c>
-      <c r="E326" t="n">
-        <v>2.124</v>
-      </c>
-      <c r="F326" t="n">
-        <v>234444.8682</v>
-      </c>
-      <c r="G326" t="n">
-        <v>-33505905.32846203</v>
-      </c>
-      <c r="H326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I326" t="n">
-        <v>2.124</v>
-      </c>
-      <c r="J326" t="n">
-        <v>2.138</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L326" t="n">
-        <v>1</v>
-      </c>
-      <c r="M326" t="inlineStr"/>
-    </row>
-    <row r="327">
-      <c r="A327" s="1" t="n">
-        <v>325</v>
-      </c>
-      <c r="B327" t="n">
-        <v>2.124</v>
-      </c>
-      <c r="C327" t="n">
-        <v>2.124</v>
-      </c>
-      <c r="D327" t="n">
-        <v>2.124</v>
-      </c>
-      <c r="E327" t="n">
-        <v>2.124</v>
-      </c>
-      <c r="F327" t="n">
-        <v>40000</v>
-      </c>
-      <c r="G327" t="n">
-        <v>-33505905.32846203</v>
-      </c>
-      <c r="H327" t="n">
-        <v>1</v>
-      </c>
-      <c r="I327" t="n">
-        <v>2.124</v>
-      </c>
-      <c r="J327" t="n">
-        <v>2.138</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L327" t="n">
-        <v>1</v>
-      </c>
-      <c r="M327" t="inlineStr"/>
-    </row>
-    <row r="328">
-      <c r="A328" s="1" t="n">
-        <v>326</v>
-      </c>
-      <c r="B328" t="n">
-        <v>2.125</v>
-      </c>
-      <c r="C328" t="n">
-        <v>2.124</v>
-      </c>
-      <c r="D328" t="n">
-        <v>2.125</v>
-      </c>
-      <c r="E328" t="n">
-        <v>2.124</v>
-      </c>
-      <c r="F328" t="n">
-        <v>600000</v>
-      </c>
-      <c r="G328" t="n">
-        <v>-33505905.32846203</v>
-      </c>
-      <c r="H328" t="n">
-        <v>1</v>
-      </c>
-      <c r="I328" t="n">
-        <v>2.124</v>
-      </c>
-      <c r="J328" t="n">
-        <v>2.138</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L328" t="n">
-        <v>1</v>
-      </c>
-      <c r="M328" t="inlineStr"/>
-    </row>
-    <row r="329">
-      <c r="A329" s="1" t="n">
-        <v>327</v>
-      </c>
-      <c r="B329" t="n">
-        <v>2.124</v>
-      </c>
-      <c r="C329" t="n">
-        <v>2.122</v>
-      </c>
-      <c r="D329" t="n">
-        <v>2.124</v>
-      </c>
-      <c r="E329" t="n">
-        <v>2.122</v>
-      </c>
-      <c r="F329" t="n">
-        <v>986446.9305</v>
-      </c>
-      <c r="G329" t="n">
-        <v>-34492352.25896203</v>
-      </c>
-      <c r="H329" t="n">
-        <v>1</v>
-      </c>
-      <c r="I329" t="n">
-        <v>2.124</v>
-      </c>
-      <c r="J329" t="n">
-        <v>2.138</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L329" t="n">
-        <v>1</v>
-      </c>
-      <c r="M329" t="inlineStr"/>
-    </row>
-    <row r="330">
-      <c r="A330" s="1" t="n">
-        <v>328</v>
-      </c>
-      <c r="B330" t="n">
-        <v>2.121</v>
-      </c>
-      <c r="C330" t="n">
-        <v>2.121</v>
-      </c>
-      <c r="D330" t="n">
-        <v>2.121</v>
-      </c>
-      <c r="E330" t="n">
-        <v>2.121</v>
-      </c>
-      <c r="F330" t="n">
-        <v>3240.8095</v>
-      </c>
-      <c r="G330" t="n">
-        <v>-34495593.06846203</v>
-      </c>
-      <c r="H330" t="n">
-        <v>1</v>
-      </c>
-      <c r="I330" t="n">
-        <v>2.122</v>
-      </c>
-      <c r="J330" t="n">
-        <v>2.138</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L330" t="n">
-        <v>1</v>
-      </c>
-      <c r="M330" t="inlineStr"/>
-    </row>
-    <row r="331">
-      <c r="A331" s="1" t="n">
-        <v>329</v>
-      </c>
-      <c r="B331" t="n">
-        <v>2.155</v>
-      </c>
-      <c r="C331" t="n">
-        <v>2.155</v>
-      </c>
-      <c r="D331" t="n">
-        <v>2.155</v>
-      </c>
-      <c r="E331" t="n">
-        <v>2.155</v>
-      </c>
-      <c r="F331" t="n">
-        <v>555</v>
-      </c>
-      <c r="G331" t="n">
-        <v>-34495038.06846203</v>
-      </c>
-      <c r="H331" t="n">
-        <v>1</v>
-      </c>
-      <c r="I331" t="n">
-        <v>2.121</v>
-      </c>
-      <c r="J331" t="n">
-        <v>2.138</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L331" t="n">
-        <v>1</v>
-      </c>
-      <c r="M331" t="inlineStr"/>
-    </row>
-    <row r="332">
-      <c r="A332" s="1" t="n">
-        <v>330</v>
-      </c>
-      <c r="B332" t="n">
-        <v>2.131</v>
-      </c>
-      <c r="C332" t="n">
-        <v>2.131</v>
-      </c>
-      <c r="D332" t="n">
-        <v>2.131</v>
-      </c>
-      <c r="E332" t="n">
-        <v>2.131</v>
-      </c>
-      <c r="F332" t="n">
-        <v>88888</v>
-      </c>
-      <c r="G332" t="n">
-        <v>-34583926.06846203</v>
-      </c>
-      <c r="H332" t="n">
-        <v>1</v>
-      </c>
-      <c r="I332" t="n">
-        <v>2.155</v>
-      </c>
-      <c r="J332" t="n">
-        <v>2.138</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L332" t="n">
-        <v>1</v>
-      </c>
-      <c r="M332" t="inlineStr"/>
-    </row>
-    <row r="333">
-      <c r="A333" s="1" t="n">
-        <v>331</v>
-      </c>
-      <c r="B333" t="n">
-        <v>2.154</v>
-      </c>
-      <c r="C333" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="D333" t="n">
-        <v>2.154</v>
-      </c>
-      <c r="E333" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="F333" t="n">
-        <v>37241.6633</v>
-      </c>
-      <c r="G333" t="n">
-        <v>-34621167.73176203</v>
-      </c>
-      <c r="H333" t="n">
-        <v>1</v>
-      </c>
-      <c r="I333" t="n">
-        <v>2.131</v>
-      </c>
-      <c r="J333" t="n">
-        <v>2.138</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L333" t="n">
-        <v>1</v>
-      </c>
-      <c r="M333" t="inlineStr"/>
-    </row>
-    <row r="334">
-      <c r="A334" s="1" t="n">
-        <v>332</v>
-      </c>
-      <c r="B334" t="n">
-        <v>2.122</v>
-      </c>
-      <c r="C334" t="n">
-        <v>2.122</v>
-      </c>
-      <c r="D334" t="n">
-        <v>2.122</v>
-      </c>
-      <c r="E334" t="n">
-        <v>2.122</v>
-      </c>
-      <c r="F334" t="n">
-        <v>44677.9528</v>
-      </c>
-      <c r="G334" t="n">
-        <v>-34665845.68456203</v>
-      </c>
-      <c r="H334" t="n">
-        <v>1</v>
-      </c>
-      <c r="I334" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="J334" t="n">
-        <v>2.138</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L334" t="n">
-        <v>1</v>
-      </c>
-      <c r="M334" t="inlineStr"/>
-    </row>
-    <row r="335">
-      <c r="A335" s="1" t="n">
-        <v>333</v>
-      </c>
-      <c r="B335" t="n">
-        <v>2.121</v>
-      </c>
-      <c r="C335" t="n">
-        <v>2.121</v>
-      </c>
-      <c r="D335" t="n">
-        <v>2.121</v>
-      </c>
-      <c r="E335" t="n">
-        <v>2.121</v>
-      </c>
-      <c r="F335" t="n">
-        <v>18643.944</v>
-      </c>
-      <c r="G335" t="n">
-        <v>-34684489.62856203</v>
-      </c>
-      <c r="H335" t="n">
-        <v>1</v>
-      </c>
-      <c r="I335" t="n">
-        <v>2.122</v>
-      </c>
-      <c r="J335" t="n">
-        <v>2.138</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L335" t="n">
-        <v>1</v>
-      </c>
-      <c r="M335" t="inlineStr"/>
-    </row>
-    <row r="336">
-      <c r="A336" s="1" t="n">
-        <v>334</v>
-      </c>
-      <c r="B336" t="n">
-        <v>2.122</v>
-      </c>
-      <c r="C336" t="n">
-        <v>2.122</v>
-      </c>
-      <c r="D336" t="n">
-        <v>2.122</v>
-      </c>
-      <c r="E336" t="n">
-        <v>2.122</v>
-      </c>
-      <c r="F336" t="n">
-        <v>41948.874</v>
-      </c>
-      <c r="G336" t="n">
-        <v>-34642540.75456203</v>
-      </c>
-      <c r="H336" t="n">
-        <v>1</v>
-      </c>
-      <c r="I336" t="n">
-        <v>2.121</v>
-      </c>
-      <c r="J336" t="n">
-        <v>2.138</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L336" t="n">
-        <v>1</v>
-      </c>
-      <c r="M336" t="inlineStr"/>
-    </row>
-    <row r="337">
-      <c r="A337" s="1" t="n">
-        <v>335</v>
-      </c>
-      <c r="B337" t="n">
-        <v>2.122</v>
-      </c>
-      <c r="C337" t="n">
-        <v>2.122</v>
-      </c>
-      <c r="D337" t="n">
-        <v>2.122</v>
-      </c>
-      <c r="E337" t="n">
-        <v>2.122</v>
-      </c>
-      <c r="F337" t="n">
-        <v>7973.7874</v>
-      </c>
-      <c r="G337" t="n">
-        <v>-34642540.75456203</v>
-      </c>
-      <c r="H337" t="n">
-        <v>1</v>
-      </c>
-      <c r="I337" t="n">
-        <v>2.122</v>
-      </c>
-      <c r="J337" t="n">
-        <v>2.138</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L337" t="n">
-        <v>1</v>
-      </c>
-      <c r="M337" t="inlineStr"/>
-    </row>
-    <row r="338">
-      <c r="A338" s="1" t="n">
-        <v>336</v>
-      </c>
-      <c r="B338" t="n">
-        <v>2.121</v>
-      </c>
-      <c r="C338" t="n">
-        <v>2.121</v>
-      </c>
-      <c r="D338" t="n">
-        <v>2.121</v>
-      </c>
-      <c r="E338" t="n">
-        <v>2.121</v>
-      </c>
-      <c r="F338" t="n">
-        <v>140246.1588</v>
-      </c>
-      <c r="G338" t="n">
-        <v>-34782786.91336203</v>
-      </c>
-      <c r="H338" t="n">
-        <v>1</v>
-      </c>
-      <c r="I338" t="n">
-        <v>2.122</v>
-      </c>
-      <c r="J338" t="n">
-        <v>2.138</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L338" t="n">
-        <v>1</v>
-      </c>
-      <c r="M338" t="inlineStr"/>
-    </row>
-    <row r="339">
-      <c r="A339" s="1" t="n">
-        <v>337</v>
-      </c>
-      <c r="B339" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="C339" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="D339" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="E339" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="F339" t="n">
-        <v>333</v>
-      </c>
-      <c r="G339" t="n">
-        <v>-34782453.91336203</v>
-      </c>
-      <c r="H339" t="n">
-        <v>1</v>
-      </c>
-      <c r="I339" t="n">
-        <v>2.121</v>
-      </c>
-      <c r="J339" t="n">
-        <v>2.138</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L339" t="n">
-        <v>1</v>
-      </c>
-      <c r="M339" t="inlineStr"/>
-    </row>
-    <row r="340">
-      <c r="A340" s="1" t="n">
-        <v>338</v>
-      </c>
-      <c r="B340" t="n">
-        <v>2.122</v>
-      </c>
-      <c r="C340" t="n">
-        <v>2.122</v>
-      </c>
-      <c r="D340" t="n">
-        <v>2.122</v>
-      </c>
-      <c r="E340" t="n">
-        <v>2.122</v>
-      </c>
-      <c r="F340" t="n">
-        <v>1545.294</v>
-      </c>
-      <c r="G340" t="n">
-        <v>-34783999.20736203</v>
-      </c>
-      <c r="H340" t="n">
-        <v>1</v>
-      </c>
-      <c r="I340" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="J340" t="n">
-        <v>2.138</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L340" t="n">
-        <v>1</v>
-      </c>
-      <c r="M340" t="inlineStr"/>
-    </row>
-    <row r="341">
-      <c r="A341" s="1" t="n">
-        <v>339</v>
-      </c>
-      <c r="B341" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="C341" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="D341" t="n">
-        <v>2.149</v>
-      </c>
-      <c r="E341" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="F341" t="n">
-        <v>67369.32249999999</v>
-      </c>
-      <c r="G341" t="n">
-        <v>-34716629.88486203</v>
-      </c>
-      <c r="H341" t="n">
-        <v>1</v>
-      </c>
-      <c r="I341" t="n">
-        <v>2.122</v>
-      </c>
-      <c r="J341" t="n">
-        <v>2.138</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L341" t="n">
-        <v>1</v>
-      </c>
-      <c r="M341" t="inlineStr"/>
-    </row>
-    <row r="342">
-      <c r="A342" s="1" t="n">
-        <v>340</v>
-      </c>
-      <c r="B342" t="n">
-        <v>2.122</v>
-      </c>
-      <c r="C342" t="n">
-        <v>2.122</v>
-      </c>
-      <c r="D342" t="n">
-        <v>2.122</v>
-      </c>
-      <c r="E342" t="n">
-        <v>2.122</v>
-      </c>
-      <c r="F342" t="n">
-        <v>8985.044</v>
-      </c>
-      <c r="G342" t="n">
-        <v>-34725614.92886203</v>
-      </c>
-      <c r="H342" t="n">
-        <v>1</v>
-      </c>
-      <c r="I342" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="J342" t="n">
-        <v>2.138</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L342" t="n">
-        <v>1</v>
-      </c>
-      <c r="M342" t="inlineStr"/>
-    </row>
-    <row r="343">
-      <c r="A343" s="1" t="n">
-        <v>341</v>
-      </c>
-      <c r="B343" t="n">
-        <v>2.122</v>
-      </c>
-      <c r="C343" t="n">
-        <v>2.122</v>
-      </c>
-      <c r="D343" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="E343" t="n">
-        <v>2.122</v>
-      </c>
-      <c r="F343" t="n">
-        <v>2997</v>
-      </c>
-      <c r="G343" t="n">
-        <v>-34725614.92886203</v>
-      </c>
-      <c r="H343" t="n">
-        <v>1</v>
-      </c>
-      <c r="I343" t="n">
-        <v>2.122</v>
-      </c>
-      <c r="J343" t="n">
-        <v>2.138</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11948,9 +11748,7 @@
       <c r="I344" t="n">
         <v>2.122</v>
       </c>
-      <c r="J344" t="n">
-        <v>2.138</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11989,9 +11787,7 @@
       <c r="I345" t="n">
         <v>2.122</v>
       </c>
-      <c r="J345" t="n">
-        <v>2.138</v>
-      </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12030,9 +11826,7 @@
       <c r="I346" t="n">
         <v>2.122</v>
       </c>
-      <c r="J346" t="n">
-        <v>2.138</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12071,9 +11865,7 @@
       <c r="I347" t="n">
         <v>2.122</v>
       </c>
-      <c r="J347" t="n">
-        <v>2.138</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12112,9 +11904,7 @@
       <c r="I348" t="n">
         <v>2.122</v>
       </c>
-      <c r="J348" t="n">
-        <v>2.138</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12153,9 +11943,7 @@
       <c r="I349" t="n">
         <v>2.122</v>
       </c>
-      <c r="J349" t="n">
-        <v>2.138</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12194,9 +11982,7 @@
       <c r="I350" t="n">
         <v>2.122</v>
       </c>
-      <c r="J350" t="n">
-        <v>2.138</v>
-      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12235,9 +12021,7 @@
       <c r="I351" t="n">
         <v>2.122</v>
       </c>
-      <c r="J351" t="n">
-        <v>2.138</v>
-      </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12276,9 +12060,7 @@
       <c r="I352" t="n">
         <v>2.126</v>
       </c>
-      <c r="J352" t="n">
-        <v>2.138</v>
-      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12317,9 +12099,7 @@
       <c r="I353" t="n">
         <v>2.127</v>
       </c>
-      <c r="J353" t="n">
-        <v>2.138</v>
-      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12358,9 +12138,7 @@
       <c r="I354" t="n">
         <v>2.148</v>
       </c>
-      <c r="J354" t="n">
-        <v>2.138</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12399,9 +12177,7 @@
       <c r="I355" t="n">
         <v>2.127</v>
       </c>
-      <c r="J355" t="n">
-        <v>2.138</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12440,9 +12216,7 @@
       <c r="I356" t="n">
         <v>2.122</v>
       </c>
-      <c r="J356" t="n">
-        <v>2.138</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12481,9 +12255,7 @@
       <c r="I357" t="n">
         <v>2.127</v>
       </c>
-      <c r="J357" t="n">
-        <v>2.138</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12522,9 +12294,7 @@
       <c r="I358" t="n">
         <v>2.147</v>
       </c>
-      <c r="J358" t="n">
-        <v>2.138</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12563,9 +12333,7 @@
       <c r="I359" t="n">
         <v>2.123</v>
       </c>
-      <c r="J359" t="n">
-        <v>2.138</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12604,9 +12372,7 @@
       <c r="I360" t="n">
         <v>2.147</v>
       </c>
-      <c r="J360" t="n">
-        <v>2.138</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12645,9 +12411,7 @@
       <c r="I361" t="n">
         <v>2.122</v>
       </c>
-      <c r="J361" t="n">
-        <v>2.138</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12686,9 +12450,7 @@
       <c r="I362" t="n">
         <v>2.122</v>
       </c>
-      <c r="J362" t="n">
-        <v>2.138</v>
-      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12727,9 +12489,7 @@
       <c r="I363" t="n">
         <v>2.147</v>
       </c>
-      <c r="J363" t="n">
-        <v>2.138</v>
-      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12768,9 +12528,7 @@
       <c r="I364" t="n">
         <v>2.122</v>
       </c>
-      <c r="J364" t="n">
-        <v>2.138</v>
-      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12809,9 +12567,7 @@
       <c r="I365" t="n">
         <v>2.122</v>
       </c>
-      <c r="J365" t="n">
-        <v>2.138</v>
-      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12850,9 +12606,7 @@
       <c r="I366" t="n">
         <v>2.135</v>
       </c>
-      <c r="J366" t="n">
-        <v>2.138</v>
-      </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12891,9 +12645,7 @@
       <c r="I367" t="n">
         <v>2.135</v>
       </c>
-      <c r="J367" t="n">
-        <v>2.138</v>
-      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12932,9 +12684,7 @@
       <c r="I368" t="n">
         <v>2.135</v>
       </c>
-      <c r="J368" t="n">
-        <v>2.138</v>
-      </c>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12973,9 +12723,7 @@
       <c r="I369" t="n">
         <v>2.135</v>
       </c>
-      <c r="J369" t="n">
-        <v>2.138</v>
-      </c>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13014,9 +12762,7 @@
       <c r="I370" t="n">
         <v>2.135</v>
       </c>
-      <c r="J370" t="n">
-        <v>2.138</v>
-      </c>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13055,9 +12801,7 @@
       <c r="I371" t="n">
         <v>2.135</v>
       </c>
-      <c r="J371" t="n">
-        <v>2.138</v>
-      </c>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13096,9 +12840,7 @@
       <c r="I372" t="n">
         <v>2.135</v>
       </c>
-      <c r="J372" t="n">
-        <v>2.138</v>
-      </c>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13137,9 +12879,7 @@
       <c r="I373" t="n">
         <v>2.135</v>
       </c>
-      <c r="J373" t="n">
-        <v>2.138</v>
-      </c>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13178,9 +12918,7 @@
       <c r="I374" t="n">
         <v>2.15</v>
       </c>
-      <c r="J374" t="n">
-        <v>2.138</v>
-      </c>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13219,9 +12957,7 @@
       <c r="I375" t="n">
         <v>2.15</v>
       </c>
-      <c r="J375" t="n">
-        <v>2.138</v>
-      </c>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13260,9 +12996,7 @@
       <c r="I376" t="n">
         <v>2.137</v>
       </c>
-      <c r="J376" t="n">
-        <v>2.138</v>
-      </c>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13301,9 +13035,7 @@
       <c r="I377" t="n">
         <v>2.143</v>
       </c>
-      <c r="J377" t="n">
-        <v>2.138</v>
-      </c>
+      <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13342,9 +13074,7 @@
       <c r="I378" t="n">
         <v>2.143</v>
       </c>
-      <c r="J378" t="n">
-        <v>2.138</v>
-      </c>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13383,9 +13113,7 @@
       <c r="I379" t="n">
         <v>2.15</v>
       </c>
-      <c r="J379" t="n">
-        <v>2.138</v>
-      </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13424,9 +13152,7 @@
       <c r="I380" t="n">
         <v>2.155</v>
       </c>
-      <c r="J380" t="n">
-        <v>2.138</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13465,9 +13191,7 @@
       <c r="I381" t="n">
         <v>2.155</v>
       </c>
-      <c r="J381" t="n">
-        <v>2.138</v>
-      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13506,9 +13230,7 @@
       <c r="I382" t="n">
         <v>2.158</v>
       </c>
-      <c r="J382" t="n">
-        <v>2.138</v>
-      </c>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13547,9 +13269,7 @@
       <c r="I383" t="n">
         <v>2.144</v>
       </c>
-      <c r="J383" t="n">
-        <v>2.138</v>
-      </c>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13588,9 +13308,7 @@
       <c r="I384" t="n">
         <v>2.143</v>
       </c>
-      <c r="J384" t="n">
-        <v>2.138</v>
-      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13629,9 +13347,7 @@
       <c r="I385" t="n">
         <v>2.144</v>
       </c>
-      <c r="J385" t="n">
-        <v>2.138</v>
-      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13670,9 +13386,7 @@
       <c r="I386" t="n">
         <v>2.144</v>
       </c>
-      <c r="J386" t="n">
-        <v>2.138</v>
-      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13711,9 +13425,7 @@
       <c r="I387" t="n">
         <v>2.144</v>
       </c>
-      <c r="J387" t="n">
-        <v>2.138</v>
-      </c>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13750,9 +13462,7 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>2.138</v>
-      </c>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13789,9 +13499,7 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>2.138</v>
-      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13828,9 +13536,7 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>2.138</v>
-      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13867,9 +13573,7 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>2.138</v>
-      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13906,9 +13610,7 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>2.138</v>
-      </c>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13945,9 +13647,7 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>2.138</v>
-      </c>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13984,9 +13684,7 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>2.138</v>
-      </c>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14020,3157 +13718,3531 @@
         <v>-21080257.19086202</v>
       </c>
       <c r="H395" t="n">
+        <v>0</v>
+      </c>
+      <c r="I395" t="inlineStr"/>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L395" t="n">
+        <v>1</v>
+      </c>
+      <c r="M395" t="inlineStr"/>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="n">
+        <v>394</v>
+      </c>
+      <c r="B396" t="n">
+        <v>2.315</v>
+      </c>
+      <c r="C396" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="D396" t="n">
+        <v>2.315</v>
+      </c>
+      <c r="E396" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F396" t="n">
+        <v>806999.4009529158</v>
+      </c>
+      <c r="G396" t="n">
+        <v>-21887256.59181494</v>
+      </c>
+      <c r="H396" t="n">
+        <v>0</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L396" t="n">
+        <v>1</v>
+      </c>
+      <c r="M396" t="inlineStr"/>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="n">
+        <v>395</v>
+      </c>
+      <c r="B397" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C397" t="n">
+        <v>2.277</v>
+      </c>
+      <c r="D397" t="n">
+        <v>2.313</v>
+      </c>
+      <c r="E397" t="n">
+        <v>2.274</v>
+      </c>
+      <c r="F397" t="n">
+        <v>3333514.8872</v>
+      </c>
+      <c r="G397" t="n">
+        <v>-18553741.70461494</v>
+      </c>
+      <c r="H397" t="n">
+        <v>0</v>
+      </c>
+      <c r="I397" t="inlineStr"/>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L397" t="n">
+        <v>1</v>
+      </c>
+      <c r="M397" t="inlineStr"/>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="n">
+        <v>396</v>
+      </c>
+      <c r="B398" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="C398" t="n">
+        <v>2.312</v>
+      </c>
+      <c r="D398" t="n">
+        <v>2.312</v>
+      </c>
+      <c r="E398" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="F398" t="n">
+        <v>3380589.15559308</v>
+      </c>
+      <c r="G398" t="n">
+        <v>-15173152.54902186</v>
+      </c>
+      <c r="H398" t="n">
+        <v>0</v>
+      </c>
+      <c r="I398" t="inlineStr"/>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L398" t="n">
+        <v>1</v>
+      </c>
+      <c r="M398" t="inlineStr"/>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="n">
+        <v>397</v>
+      </c>
+      <c r="B399" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="C399" t="n">
+        <v>2.309</v>
+      </c>
+      <c r="D399" t="n">
+        <v>2.312</v>
+      </c>
+      <c r="E399" t="n">
+        <v>2.309</v>
+      </c>
+      <c r="F399" t="n">
+        <v>5211924.857824568</v>
+      </c>
+      <c r="G399" t="n">
+        <v>-20385077.40684643</v>
+      </c>
+      <c r="H399" t="n">
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L399" t="n">
+        <v>1</v>
+      </c>
+      <c r="M399" t="inlineStr"/>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="B400" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="C400" t="n">
+        <v>2.279</v>
+      </c>
+      <c r="D400" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="E400" t="n">
+        <v>2.279</v>
+      </c>
+      <c r="F400" t="n">
+        <v>387768.0007</v>
+      </c>
+      <c r="G400" t="n">
+        <v>-20772845.40754643</v>
+      </c>
+      <c r="H400" t="n">
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L400" t="n">
+        <v>1</v>
+      </c>
+      <c r="M400" t="inlineStr"/>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="B401" t="n">
+        <v>2.275</v>
+      </c>
+      <c r="C401" t="n">
+        <v>2.266</v>
+      </c>
+      <c r="D401" t="n">
+        <v>2.275</v>
+      </c>
+      <c r="E401" t="n">
+        <v>2.266</v>
+      </c>
+      <c r="F401" t="n">
+        <v>749317.0046</v>
+      </c>
+      <c r="G401" t="n">
+        <v>-21522162.41214643</v>
+      </c>
+      <c r="H401" t="n">
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L401" t="n">
+        <v>1</v>
+      </c>
+      <c r="M401" t="inlineStr"/>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="B402" t="n">
+        <v>2.266</v>
+      </c>
+      <c r="C402" t="n">
+        <v>2.248</v>
+      </c>
+      <c r="D402" t="n">
+        <v>2.266</v>
+      </c>
+      <c r="E402" t="n">
+        <v>2.248</v>
+      </c>
+      <c r="F402" t="n">
+        <v>7453284.5758</v>
+      </c>
+      <c r="G402" t="n">
+        <v>-28975446.98794643</v>
+      </c>
+      <c r="H402" t="n">
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L402" t="n">
+        <v>1</v>
+      </c>
+      <c r="M402" t="inlineStr"/>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="n">
+        <v>401</v>
+      </c>
+      <c r="B403" t="n">
+        <v>2.251</v>
+      </c>
+      <c r="C403" t="n">
+        <v>2.248</v>
+      </c>
+      <c r="D403" t="n">
+        <v>2.251</v>
+      </c>
+      <c r="E403" t="n">
+        <v>2.248</v>
+      </c>
+      <c r="F403" t="n">
+        <v>121462.5695</v>
+      </c>
+      <c r="G403" t="n">
+        <v>-28975446.98794643</v>
+      </c>
+      <c r="H403" t="n">
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L403" t="n">
+        <v>1</v>
+      </c>
+      <c r="M403" t="inlineStr"/>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="B404" t="n">
+        <v>2.251</v>
+      </c>
+      <c r="C404" t="n">
+        <v>2.243</v>
+      </c>
+      <c r="D404" t="n">
+        <v>2.251</v>
+      </c>
+      <c r="E404" t="n">
+        <v>2.243</v>
+      </c>
+      <c r="F404" t="n">
+        <v>1145798.403</v>
+      </c>
+      <c r="G404" t="n">
+        <v>-30121245.39094643</v>
+      </c>
+      <c r="H404" t="n">
+        <v>0</v>
+      </c>
+      <c r="I404" t="inlineStr"/>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L404" t="n">
+        <v>1</v>
+      </c>
+      <c r="M404" t="inlineStr"/>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="n">
+        <v>403</v>
+      </c>
+      <c r="B405" t="n">
+        <v>2.248</v>
+      </c>
+      <c r="C405" t="n">
+        <v>2.251</v>
+      </c>
+      <c r="D405" t="n">
+        <v>2.251</v>
+      </c>
+      <c r="E405" t="n">
+        <v>2.248</v>
+      </c>
+      <c r="F405" t="n">
+        <v>832482.833</v>
+      </c>
+      <c r="G405" t="n">
+        <v>-29288762.55794643</v>
+      </c>
+      <c r="H405" t="n">
+        <v>0</v>
+      </c>
+      <c r="I405" t="inlineStr"/>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L405" t="n">
+        <v>1</v>
+      </c>
+      <c r="M405" t="inlineStr"/>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="n">
+        <v>404</v>
+      </c>
+      <c r="B406" t="n">
+        <v>2.244</v>
+      </c>
+      <c r="C406" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="D406" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="E406" t="n">
+        <v>2.244</v>
+      </c>
+      <c r="F406" t="n">
+        <v>1275686.1284</v>
+      </c>
+      <c r="G406" t="n">
+        <v>-28013076.42954643</v>
+      </c>
+      <c r="H406" t="n">
+        <v>0</v>
+      </c>
+      <c r="I406" t="inlineStr"/>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L406" t="n">
+        <v>1</v>
+      </c>
+      <c r="M406" t="inlineStr"/>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="n">
+        <v>405</v>
+      </c>
+      <c r="B407" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="C407" t="n">
+        <v>2.288</v>
+      </c>
+      <c r="D407" t="n">
+        <v>2.288</v>
+      </c>
+      <c r="E407" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="F407" t="n">
+        <v>117700.9922</v>
+      </c>
+      <c r="G407" t="n">
+        <v>-27895375.43734643</v>
+      </c>
+      <c r="H407" t="n">
+        <v>0</v>
+      </c>
+      <c r="I407" t="inlineStr"/>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L407" t="n">
+        <v>1</v>
+      </c>
+      <c r="M407" t="inlineStr"/>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="n">
+        <v>406</v>
+      </c>
+      <c r="B408" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="C408" t="n">
+        <v>2.286</v>
+      </c>
+      <c r="D408" t="n">
+        <v>2.286</v>
+      </c>
+      <c r="E408" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F408" t="n">
+        <v>152732.2026</v>
+      </c>
+      <c r="G408" t="n">
+        <v>-28048107.63994643</v>
+      </c>
+      <c r="H408" t="n">
+        <v>0</v>
+      </c>
+      <c r="I408" t="inlineStr"/>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L408" t="n">
+        <v>1</v>
+      </c>
+      <c r="M408" t="inlineStr"/>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="n">
+        <v>407</v>
+      </c>
+      <c r="B409" t="n">
+        <v>2.285</v>
+      </c>
+      <c r="C409" t="n">
+        <v>2.285</v>
+      </c>
+      <c r="D409" t="n">
+        <v>2.285</v>
+      </c>
+      <c r="E409" t="n">
+        <v>2.285</v>
+      </c>
+      <c r="F409" t="n">
+        <v>130963.6237</v>
+      </c>
+      <c r="G409" t="n">
+        <v>-28179071.26364643</v>
+      </c>
+      <c r="H409" t="n">
+        <v>0</v>
+      </c>
+      <c r="I409" t="inlineStr"/>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L409" t="n">
+        <v>1</v>
+      </c>
+      <c r="M409" t="inlineStr"/>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="n">
+        <v>408</v>
+      </c>
+      <c r="B410" t="n">
+        <v>2.262</v>
+      </c>
+      <c r="C410" t="n">
+        <v>2.243</v>
+      </c>
+      <c r="D410" t="n">
+        <v>2.262</v>
+      </c>
+      <c r="E410" t="n">
+        <v>2.243</v>
+      </c>
+      <c r="F410" t="n">
+        <v>1093387.0447</v>
+      </c>
+      <c r="G410" t="n">
+        <v>-29272458.30834643</v>
+      </c>
+      <c r="H410" t="n">
+        <v>0</v>
+      </c>
+      <c r="I410" t="inlineStr"/>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L410" t="n">
+        <v>1</v>
+      </c>
+      <c r="M410" t="inlineStr"/>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="n">
+        <v>409</v>
+      </c>
+      <c r="B411" t="n">
+        <v>2.245</v>
+      </c>
+      <c r="C411" t="n">
+        <v>2.261</v>
+      </c>
+      <c r="D411" t="n">
+        <v>2.261</v>
+      </c>
+      <c r="E411" t="n">
+        <v>2.232</v>
+      </c>
+      <c r="F411" t="n">
+        <v>547705.8297999999</v>
+      </c>
+      <c r="G411" t="n">
+        <v>-28724752.47854643</v>
+      </c>
+      <c r="H411" t="n">
+        <v>0</v>
+      </c>
+      <c r="I411" t="inlineStr"/>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L411" t="n">
+        <v>1</v>
+      </c>
+      <c r="M411" t="inlineStr"/>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="n">
+        <v>410</v>
+      </c>
+      <c r="B412" t="n">
+        <v>2.232</v>
+      </c>
+      <c r="C412" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="D412" t="n">
+        <v>2.232</v>
+      </c>
+      <c r="E412" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="F412" t="n">
+        <v>245527.0294</v>
+      </c>
+      <c r="G412" t="n">
+        <v>-28970279.50794643</v>
+      </c>
+      <c r="H412" t="n">
+        <v>0</v>
+      </c>
+      <c r="I412" t="inlineStr"/>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L412" t="n">
+        <v>1</v>
+      </c>
+      <c r="M412" t="inlineStr"/>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="n">
+        <v>411</v>
+      </c>
+      <c r="B413" t="n">
+        <v>2.215</v>
+      </c>
+      <c r="C413" t="n">
+        <v>2.215</v>
+      </c>
+      <c r="D413" t="n">
+        <v>2.215</v>
+      </c>
+      <c r="E413" t="n">
+        <v>2.215</v>
+      </c>
+      <c r="F413" t="n">
+        <v>69627.24950000001</v>
+      </c>
+      <c r="G413" t="n">
+        <v>-29039906.75744643</v>
+      </c>
+      <c r="H413" t="n">
+        <v>0</v>
+      </c>
+      <c r="I413" t="inlineStr"/>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L413" t="n">
+        <v>1</v>
+      </c>
+      <c r="M413" t="inlineStr"/>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="n">
+        <v>412</v>
+      </c>
+      <c r="B414" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="C414" t="n">
+        <v>2.222</v>
+      </c>
+      <c r="D414" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="E414" t="n">
+        <v>2.222</v>
+      </c>
+      <c r="F414" t="n">
+        <v>452352.2566</v>
+      </c>
+      <c r="G414" t="n">
+        <v>-28587554.50084643</v>
+      </c>
+      <c r="H414" t="n">
+        <v>0</v>
+      </c>
+      <c r="I414" t="inlineStr"/>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L414" t="n">
+        <v>1</v>
+      </c>
+      <c r="M414" t="inlineStr"/>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="n">
+        <v>413</v>
+      </c>
+      <c r="B415" t="n">
+        <v>2.222</v>
+      </c>
+      <c r="C415" t="n">
+        <v>2.222</v>
+      </c>
+      <c r="D415" t="n">
+        <v>2.222</v>
+      </c>
+      <c r="E415" t="n">
+        <v>2.222</v>
+      </c>
+      <c r="F415" t="n">
+        <v>20280.709</v>
+      </c>
+      <c r="G415" t="n">
+        <v>-28587554.50084643</v>
+      </c>
+      <c r="H415" t="n">
+        <v>0</v>
+      </c>
+      <c r="I415" t="inlineStr"/>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L415" t="n">
+        <v>1</v>
+      </c>
+      <c r="M415" t="inlineStr"/>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="n">
+        <v>414</v>
+      </c>
+      <c r="B416" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="C416" t="n">
+        <v>2.249</v>
+      </c>
+      <c r="D416" t="n">
+        <v>2.249</v>
+      </c>
+      <c r="E416" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="F416" t="n">
+        <v>368228.8844</v>
+      </c>
+      <c r="G416" t="n">
+        <v>-28219325.61644643</v>
+      </c>
+      <c r="H416" t="n">
+        <v>0</v>
+      </c>
+      <c r="I416" t="inlineStr"/>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L416" t="n">
+        <v>1</v>
+      </c>
+      <c r="M416" t="inlineStr"/>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="n">
+        <v>415</v>
+      </c>
+      <c r="B417" t="n">
+        <v>2.241</v>
+      </c>
+      <c r="C417" t="n">
+        <v>2.239</v>
+      </c>
+      <c r="D417" t="n">
+        <v>2.241</v>
+      </c>
+      <c r="E417" t="n">
+        <v>2.239</v>
+      </c>
+      <c r="F417" t="n">
+        <v>1532424.4075</v>
+      </c>
+      <c r="G417" t="n">
+        <v>-29751750.02394643</v>
+      </c>
+      <c r="H417" t="n">
+        <v>0</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L417" t="n">
+        <v>1</v>
+      </c>
+      <c r="M417" t="inlineStr"/>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="n">
+        <v>416</v>
+      </c>
+      <c r="B418" t="n">
+        <v>2.239</v>
+      </c>
+      <c r="C418" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="D418" t="n">
+        <v>2.239</v>
+      </c>
+      <c r="E418" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="F418" t="n">
+        <v>124167.6844</v>
+      </c>
+      <c r="G418" t="n">
+        <v>-29875917.70834643</v>
+      </c>
+      <c r="H418" t="n">
+        <v>0</v>
+      </c>
+      <c r="I418" t="inlineStr"/>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L418" t="n">
+        <v>1</v>
+      </c>
+      <c r="M418" t="inlineStr"/>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="n">
+        <v>417</v>
+      </c>
+      <c r="B419" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="C419" t="n">
+        <v>2.205</v>
+      </c>
+      <c r="D419" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="E419" t="n">
+        <v>2.205</v>
+      </c>
+      <c r="F419" t="n">
+        <v>1850530.0452</v>
+      </c>
+      <c r="G419" t="n">
+        <v>-31726447.75354643</v>
+      </c>
+      <c r="H419" t="n">
+        <v>0</v>
+      </c>
+      <c r="I419" t="inlineStr"/>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L419" t="n">
+        <v>1</v>
+      </c>
+      <c r="M419" t="inlineStr"/>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="n">
+        <v>418</v>
+      </c>
+      <c r="B420" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="C420" t="n">
+        <v>2.231</v>
+      </c>
+      <c r="D420" t="n">
+        <v>2.231</v>
+      </c>
+      <c r="E420" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="F420" t="n">
+        <v>95384.65889999999</v>
+      </c>
+      <c r="G420" t="n">
+        <v>-31631063.09464643</v>
+      </c>
+      <c r="H420" t="n">
+        <v>0</v>
+      </c>
+      <c r="I420" t="inlineStr"/>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L420" t="n">
+        <v>1</v>
+      </c>
+      <c r="M420" t="inlineStr"/>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="n">
+        <v>419</v>
+      </c>
+      <c r="B421" t="n">
+        <v>2.231</v>
+      </c>
+      <c r="C421" t="n">
+        <v>2.209</v>
+      </c>
+      <c r="D421" t="n">
+        <v>2.231</v>
+      </c>
+      <c r="E421" t="n">
+        <v>2.209</v>
+      </c>
+      <c r="F421" t="n">
+        <v>2746657.5849</v>
+      </c>
+      <c r="G421" t="n">
+        <v>-34377720.67954643</v>
+      </c>
+      <c r="H421" t="n">
+        <v>0</v>
+      </c>
+      <c r="I421" t="inlineStr"/>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L421" t="n">
+        <v>1</v>
+      </c>
+      <c r="M421" t="inlineStr"/>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="n">
+        <v>420</v>
+      </c>
+      <c r="B422" t="n">
+        <v>2.209</v>
+      </c>
+      <c r="C422" t="n">
+        <v>2.239</v>
+      </c>
+      <c r="D422" t="n">
+        <v>2.239</v>
+      </c>
+      <c r="E422" t="n">
+        <v>2.209</v>
+      </c>
+      <c r="F422" t="n">
+        <v>271448.1109</v>
+      </c>
+      <c r="G422" t="n">
+        <v>-34106272.56864643</v>
+      </c>
+      <c r="H422" t="n">
+        <v>0</v>
+      </c>
+      <c r="I422" t="inlineStr"/>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L422" t="n">
+        <v>1</v>
+      </c>
+      <c r="M422" t="inlineStr"/>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="n">
+        <v>421</v>
+      </c>
+      <c r="B423" t="n">
+        <v>2.213</v>
+      </c>
+      <c r="C423" t="n">
+        <v>2.211</v>
+      </c>
+      <c r="D423" t="n">
+        <v>2.213</v>
+      </c>
+      <c r="E423" t="n">
+        <v>2.211</v>
+      </c>
+      <c r="F423" t="n">
+        <v>375793.9489</v>
+      </c>
+      <c r="G423" t="n">
+        <v>-34482066.51754643</v>
+      </c>
+      <c r="H423" t="n">
+        <v>0</v>
+      </c>
+      <c r="I423" t="inlineStr"/>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L423" t="n">
+        <v>1</v>
+      </c>
+      <c r="M423" t="inlineStr"/>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="n">
+        <v>422</v>
+      </c>
+      <c r="B424" t="n">
+        <v>2.211</v>
+      </c>
+      <c r="C424" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="D424" t="n">
+        <v>2.211</v>
+      </c>
+      <c r="E424" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="F424" t="n">
+        <v>517487.3284</v>
+      </c>
+      <c r="G424" t="n">
+        <v>-34999553.84594643</v>
+      </c>
+      <c r="H424" t="n">
+        <v>0</v>
+      </c>
+      <c r="I424" t="inlineStr"/>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L424" t="n">
+        <v>1</v>
+      </c>
+      <c r="M424" t="inlineStr"/>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="n">
+        <v>423</v>
+      </c>
+      <c r="B425" t="n">
+        <v>2.208</v>
+      </c>
+      <c r="C425" t="n">
+        <v>2.207</v>
+      </c>
+      <c r="D425" t="n">
+        <v>2.208</v>
+      </c>
+      <c r="E425" t="n">
+        <v>2.207</v>
+      </c>
+      <c r="F425" t="n">
+        <v>50614.2159</v>
+      </c>
+      <c r="G425" t="n">
+        <v>-35050168.06184643</v>
+      </c>
+      <c r="H425" t="n">
+        <v>0</v>
+      </c>
+      <c r="I425" t="inlineStr"/>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L425" t="n">
+        <v>1</v>
+      </c>
+      <c r="M425" t="inlineStr"/>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="n">
+        <v>424</v>
+      </c>
+      <c r="B426" t="n">
+        <v>2.207</v>
+      </c>
+      <c r="C426" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D426" t="n">
+        <v>2.207</v>
+      </c>
+      <c r="E426" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F426" t="n">
+        <v>2176585.3533</v>
+      </c>
+      <c r="G426" t="n">
+        <v>-37226753.41514643</v>
+      </c>
+      <c r="H426" t="n">
+        <v>0</v>
+      </c>
+      <c r="I426" t="inlineStr"/>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L426" t="n">
+        <v>1</v>
+      </c>
+      <c r="M426" t="inlineStr"/>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="n">
+        <v>425</v>
+      </c>
+      <c r="B427" t="n">
+        <v>2.211</v>
+      </c>
+      <c r="C427" t="n">
+        <v>2.195</v>
+      </c>
+      <c r="D427" t="n">
+        <v>2.211</v>
+      </c>
+      <c r="E427" t="n">
+        <v>2.195</v>
+      </c>
+      <c r="F427" t="n">
+        <v>540</v>
+      </c>
+      <c r="G427" t="n">
+        <v>-37227293.41514643</v>
+      </c>
+      <c r="H427" t="n">
+        <v>0</v>
+      </c>
+      <c r="I427" t="inlineStr"/>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L427" t="n">
+        <v>1</v>
+      </c>
+      <c r="M427" t="inlineStr"/>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="n">
+        <v>426</v>
+      </c>
+      <c r="B428" t="n">
+        <v>2.211</v>
+      </c>
+      <c r="C428" t="n">
+        <v>2.208</v>
+      </c>
+      <c r="D428" t="n">
+        <v>2.229</v>
+      </c>
+      <c r="E428" t="n">
+        <v>2.208</v>
+      </c>
+      <c r="F428" t="n">
+        <v>202456</v>
+      </c>
+      <c r="G428" t="n">
+        <v>-37024837.41514643</v>
+      </c>
+      <c r="H428" t="n">
+        <v>0</v>
+      </c>
+      <c r="I428" t="inlineStr"/>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L428" t="n">
+        <v>1</v>
+      </c>
+      <c r="M428" t="inlineStr"/>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="n">
+        <v>427</v>
+      </c>
+      <c r="B429" t="n">
+        <v>2.208</v>
+      </c>
+      <c r="C429" t="n">
+        <v>2.208</v>
+      </c>
+      <c r="D429" t="n">
+        <v>2.208</v>
+      </c>
+      <c r="E429" t="n">
+        <v>2.208</v>
+      </c>
+      <c r="F429" t="n">
+        <v>2756</v>
+      </c>
+      <c r="G429" t="n">
+        <v>-37024837.41514643</v>
+      </c>
+      <c r="H429" t="n">
+        <v>0</v>
+      </c>
+      <c r="I429" t="inlineStr"/>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L429" t="n">
+        <v>1</v>
+      </c>
+      <c r="M429" t="inlineStr"/>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="n">
+        <v>428</v>
+      </c>
+      <c r="B430" t="n">
+        <v>2.229</v>
+      </c>
+      <c r="C430" t="n">
+        <v>2.229</v>
+      </c>
+      <c r="D430" t="n">
+        <v>2.229</v>
+      </c>
+      <c r="E430" t="n">
+        <v>2.229</v>
+      </c>
+      <c r="F430" t="n">
+        <v>234</v>
+      </c>
+      <c r="G430" t="n">
+        <v>-37024603.41514643</v>
+      </c>
+      <c r="H430" t="n">
+        <v>0</v>
+      </c>
+      <c r="I430" t="inlineStr"/>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L430" t="n">
+        <v>1</v>
+      </c>
+      <c r="M430" t="inlineStr"/>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="n">
+        <v>429</v>
+      </c>
+      <c r="B431" t="n">
+        <v>2.229</v>
+      </c>
+      <c r="C431" t="n">
+        <v>2.231</v>
+      </c>
+      <c r="D431" t="n">
+        <v>2.231</v>
+      </c>
+      <c r="E431" t="n">
+        <v>2.229</v>
+      </c>
+      <c r="F431" t="n">
+        <v>971482.2161</v>
+      </c>
+      <c r="G431" t="n">
+        <v>-36053121.19904643</v>
+      </c>
+      <c r="H431" t="n">
+        <v>0</v>
+      </c>
+      <c r="I431" t="inlineStr"/>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L431" t="n">
+        <v>1</v>
+      </c>
+      <c r="M431" t="inlineStr"/>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="n">
+        <v>430</v>
+      </c>
+      <c r="B432" t="n">
+        <v>2.232</v>
+      </c>
+      <c r="C432" t="n">
+        <v>2.238</v>
+      </c>
+      <c r="D432" t="n">
+        <v>2.238</v>
+      </c>
+      <c r="E432" t="n">
+        <v>2.232</v>
+      </c>
+      <c r="F432" t="n">
+        <v>2503811.6238</v>
+      </c>
+      <c r="G432" t="n">
+        <v>-33549309.57524642</v>
+      </c>
+      <c r="H432" t="n">
+        <v>0</v>
+      </c>
+      <c r="I432" t="inlineStr"/>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L432" t="n">
+        <v>1</v>
+      </c>
+      <c r="M432" t="inlineStr"/>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="n">
+        <v>431</v>
+      </c>
+      <c r="B433" t="n">
+        <v>2.238</v>
+      </c>
+      <c r="C433" t="n">
+        <v>2.239</v>
+      </c>
+      <c r="D433" t="n">
+        <v>2.239</v>
+      </c>
+      <c r="E433" t="n">
+        <v>2.231</v>
+      </c>
+      <c r="F433" t="n">
+        <v>1000234</v>
+      </c>
+      <c r="G433" t="n">
+        <v>-32549075.57524642</v>
+      </c>
+      <c r="H433" t="n">
+        <v>0</v>
+      </c>
+      <c r="I433" t="inlineStr"/>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L433" t="n">
+        <v>1</v>
+      </c>
+      <c r="M433" t="inlineStr"/>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="n">
+        <v>432</v>
+      </c>
+      <c r="B434" t="n">
+        <v>2.239</v>
+      </c>
+      <c r="C434" t="n">
+        <v>2.239</v>
+      </c>
+      <c r="D434" t="n">
+        <v>2.239</v>
+      </c>
+      <c r="E434" t="n">
+        <v>2.239</v>
+      </c>
+      <c r="F434" t="n">
+        <v>7976.4072</v>
+      </c>
+      <c r="G434" t="n">
+        <v>-32549075.57524642</v>
+      </c>
+      <c r="H434" t="n">
+        <v>0</v>
+      </c>
+      <c r="I434" t="inlineStr"/>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L434" t="n">
+        <v>1</v>
+      </c>
+      <c r="M434" t="inlineStr"/>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="n">
+        <v>433</v>
+      </c>
+      <c r="B435" t="n">
+        <v>2.231</v>
+      </c>
+      <c r="C435" t="n">
+        <v>2.231</v>
+      </c>
+      <c r="D435" t="n">
+        <v>2.231</v>
+      </c>
+      <c r="E435" t="n">
+        <v>2.231</v>
+      </c>
+      <c r="F435" t="n">
+        <v>14597.9701</v>
+      </c>
+      <c r="G435" t="n">
+        <v>-32563673.54534642</v>
+      </c>
+      <c r="H435" t="n">
+        <v>0</v>
+      </c>
+      <c r="I435" t="inlineStr"/>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L435" t="n">
+        <v>1</v>
+      </c>
+      <c r="M435" t="inlineStr"/>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="B436" t="n">
+        <v>2.231</v>
+      </c>
+      <c r="C436" t="n">
+        <v>2.231</v>
+      </c>
+      <c r="D436" t="n">
+        <v>2.231</v>
+      </c>
+      <c r="E436" t="n">
+        <v>2.231</v>
+      </c>
+      <c r="F436" t="n">
+        <v>58131.2714</v>
+      </c>
+      <c r="G436" t="n">
+        <v>-32563673.54534642</v>
+      </c>
+      <c r="H436" t="n">
+        <v>0</v>
+      </c>
+      <c r="I436" t="inlineStr"/>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L436" t="n">
+        <v>1</v>
+      </c>
+      <c r="M436" t="inlineStr"/>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="n">
+        <v>435</v>
+      </c>
+      <c r="B437" t="n">
+        <v>2.239</v>
+      </c>
+      <c r="C437" t="n">
+        <v>2.239</v>
+      </c>
+      <c r="D437" t="n">
+        <v>2.239</v>
+      </c>
+      <c r="E437" t="n">
+        <v>2.239</v>
+      </c>
+      <c r="F437" t="n">
+        <v>218900.7004</v>
+      </c>
+      <c r="G437" t="n">
+        <v>-32344772.84494643</v>
+      </c>
+      <c r="H437" t="n">
+        <v>0</v>
+      </c>
+      <c r="I437" t="inlineStr"/>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L437" t="n">
+        <v>1</v>
+      </c>
+      <c r="M437" t="inlineStr"/>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="n">
+        <v>436</v>
+      </c>
+      <c r="B438" t="n">
+        <v>2.239</v>
+      </c>
+      <c r="C438" t="n">
+        <v>2.202</v>
+      </c>
+      <c r="D438" t="n">
+        <v>2.239</v>
+      </c>
+      <c r="E438" t="n">
+        <v>2.202</v>
+      </c>
+      <c r="F438" t="n">
+        <v>2393466.2322</v>
+      </c>
+      <c r="G438" t="n">
+        <v>-34738239.07714643</v>
+      </c>
+      <c r="H438" t="n">
+        <v>0</v>
+      </c>
+      <c r="I438" t="inlineStr"/>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L438" t="n">
+        <v>1</v>
+      </c>
+      <c r="M438" t="inlineStr"/>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="n">
+        <v>437</v>
+      </c>
+      <c r="B439" t="n">
+        <v>2.239</v>
+      </c>
+      <c r="C439" t="n">
+        <v>2.239</v>
+      </c>
+      <c r="D439" t="n">
+        <v>2.239</v>
+      </c>
+      <c r="E439" t="n">
+        <v>2.239</v>
+      </c>
+      <c r="F439" t="n">
+        <v>1063484.9544</v>
+      </c>
+      <c r="G439" t="n">
+        <v>-33674754.12274642</v>
+      </c>
+      <c r="H439" t="n">
+        <v>0</v>
+      </c>
+      <c r="I439" t="inlineStr"/>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L439" t="n">
+        <v>1</v>
+      </c>
+      <c r="M439" t="inlineStr"/>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="n">
+        <v>438</v>
+      </c>
+      <c r="B440" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="C440" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="D440" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="E440" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="F440" t="n">
+        <v>224</v>
+      </c>
+      <c r="G440" t="n">
+        <v>-33674530.12274642</v>
+      </c>
+      <c r="H440" t="n">
+        <v>0</v>
+      </c>
+      <c r="I440" t="inlineStr"/>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L440" t="n">
+        <v>1</v>
+      </c>
+      <c r="M440" t="inlineStr"/>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="n">
+        <v>439</v>
+      </c>
+      <c r="B441" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="C441" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="D441" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="E441" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="F441" t="n">
+        <v>98497.3548</v>
+      </c>
+      <c r="G441" t="n">
+        <v>-33674530.12274642</v>
+      </c>
+      <c r="H441" t="n">
+        <v>0</v>
+      </c>
+      <c r="I441" t="inlineStr"/>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L441" t="n">
+        <v>1</v>
+      </c>
+      <c r="M441" t="inlineStr"/>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="n">
+        <v>440</v>
+      </c>
+      <c r="B442" t="n">
+        <v>2.238</v>
+      </c>
+      <c r="C442" t="n">
+        <v>2.239</v>
+      </c>
+      <c r="D442" t="n">
+        <v>2.239</v>
+      </c>
+      <c r="E442" t="n">
+        <v>2.238</v>
+      </c>
+      <c r="F442" t="n">
+        <v>1782847.9894</v>
+      </c>
+      <c r="G442" t="n">
+        <v>-35457378.11214642</v>
+      </c>
+      <c r="H442" t="n">
+        <v>0</v>
+      </c>
+      <c r="I442" t="inlineStr"/>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L442" t="n">
+        <v>1</v>
+      </c>
+      <c r="M442" t="inlineStr"/>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="n">
+        <v>441</v>
+      </c>
+      <c r="B443" t="n">
+        <v>2.239</v>
+      </c>
+      <c r="C443" t="n">
+        <v>2.249</v>
+      </c>
+      <c r="D443" t="n">
+        <v>2.249</v>
+      </c>
+      <c r="E443" t="n">
+        <v>2.239</v>
+      </c>
+      <c r="F443" t="n">
+        <v>1280178.6285</v>
+      </c>
+      <c r="G443" t="n">
+        <v>-34177199.48364642</v>
+      </c>
+      <c r="H443" t="n">
+        <v>0</v>
+      </c>
+      <c r="I443" t="inlineStr"/>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L443" t="n">
+        <v>1</v>
+      </c>
+      <c r="M443" t="inlineStr"/>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="n">
+        <v>442</v>
+      </c>
+      <c r="B444" t="n">
+        <v>2.249</v>
+      </c>
+      <c r="C444" t="n">
+        <v>2.258</v>
+      </c>
+      <c r="D444" t="n">
+        <v>2.258</v>
+      </c>
+      <c r="E444" t="n">
+        <v>2.249</v>
+      </c>
+      <c r="F444" t="n">
+        <v>386171.9939</v>
+      </c>
+      <c r="G444" t="n">
+        <v>-33791027.48974642</v>
+      </c>
+      <c r="H444" t="n">
+        <v>0</v>
+      </c>
+      <c r="I444" t="inlineStr"/>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L444" t="n">
+        <v>1</v>
+      </c>
+      <c r="M444" t="inlineStr"/>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="n">
+        <v>443</v>
+      </c>
+      <c r="B445" t="n">
+        <v>2.249</v>
+      </c>
+      <c r="C445" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="D445" t="n">
+        <v>2.249</v>
+      </c>
+      <c r="E445" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="F445" t="n">
+        <v>1050205.93</v>
+      </c>
+      <c r="G445" t="n">
+        <v>-34841233.41974642</v>
+      </c>
+      <c r="H445" t="n">
+        <v>0</v>
+      </c>
+      <c r="I445" t="inlineStr"/>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L445" t="n">
+        <v>1</v>
+      </c>
+      <c r="M445" t="inlineStr"/>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="n">
+        <v>444</v>
+      </c>
+      <c r="B446" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="C446" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="D446" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="E446" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="F446" t="n">
+        <v>40963.5093</v>
+      </c>
+      <c r="G446" t="n">
+        <v>-34841233.41974642</v>
+      </c>
+      <c r="H446" t="n">
+        <v>0</v>
+      </c>
+      <c r="I446" t="inlineStr"/>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L446" t="n">
+        <v>1</v>
+      </c>
+      <c r="M446" t="inlineStr"/>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="n">
+        <v>445</v>
+      </c>
+      <c r="B447" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="C447" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="D447" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="E447" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="F447" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G447" t="n">
+        <v>-34841233.41974642</v>
+      </c>
+      <c r="H447" t="n">
+        <v>0</v>
+      </c>
+      <c r="I447" t="inlineStr"/>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L447" t="n">
+        <v>1</v>
+      </c>
+      <c r="M447" t="inlineStr"/>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="n">
+        <v>446</v>
+      </c>
+      <c r="B448" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="C448" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="D448" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="E448" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="F448" t="n">
+        <v>500</v>
+      </c>
+      <c r="G448" t="n">
+        <v>-34841733.41974642</v>
+      </c>
+      <c r="H448" t="n">
+        <v>0</v>
+      </c>
+      <c r="I448" t="inlineStr"/>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L448" t="n">
+        <v>1</v>
+      </c>
+      <c r="M448" t="inlineStr"/>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="n">
+        <v>447</v>
+      </c>
+      <c r="B449" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="C449" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="D449" t="n">
+        <v>2.254</v>
+      </c>
+      <c r="E449" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="F449" t="n">
+        <v>103892.8344</v>
+      </c>
+      <c r="G449" t="n">
+        <v>-34737840.58534642</v>
+      </c>
+      <c r="H449" t="n">
+        <v>0</v>
+      </c>
+      <c r="I449" t="inlineStr"/>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L449" t="n">
+        <v>1</v>
+      </c>
+      <c r="M449" t="inlineStr"/>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="n">
+        <v>448</v>
+      </c>
+      <c r="B450" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="C450" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="D450" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="E450" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="F450" t="n">
+        <v>1586968.2154</v>
+      </c>
+      <c r="G450" t="n">
+        <v>-34737840.58534642</v>
+      </c>
+      <c r="H450" t="n">
+        <v>0</v>
+      </c>
+      <c r="I450" t="inlineStr"/>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L450" t="n">
+        <v>1</v>
+      </c>
+      <c r="M450" t="inlineStr"/>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="n">
+        <v>449</v>
+      </c>
+      <c r="B451" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="C451" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="D451" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="E451" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="F451" t="n">
+        <v>53296.1774</v>
+      </c>
+      <c r="G451" t="n">
+        <v>-34737840.58534642</v>
+      </c>
+      <c r="H451" t="n">
+        <v>0</v>
+      </c>
+      <c r="I451" t="inlineStr"/>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L451" t="n">
+        <v>1</v>
+      </c>
+      <c r="M451" t="inlineStr"/>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="n">
+        <v>450</v>
+      </c>
+      <c r="B452" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="C452" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D452" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E452" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F452" t="n">
+        <v>444</v>
+      </c>
+      <c r="G452" t="n">
+        <v>-34737396.58534642</v>
+      </c>
+      <c r="H452" t="n">
+        <v>0</v>
+      </c>
+      <c r="I452" t="inlineStr"/>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L452" t="n">
+        <v>1</v>
+      </c>
+      <c r="M452" t="inlineStr"/>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="n">
+        <v>451</v>
+      </c>
+      <c r="B453" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="C453" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="D453" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="E453" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F453" t="n">
+        <v>1487369.453</v>
+      </c>
+      <c r="G453" t="n">
+        <v>-33250027.13234642</v>
+      </c>
+      <c r="H453" t="n">
+        <v>0</v>
+      </c>
+      <c r="I453" t="inlineStr"/>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L453" t="n">
+        <v>1</v>
+      </c>
+      <c r="M453" t="inlineStr"/>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="n">
+        <v>452</v>
+      </c>
+      <c r="B454" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="C454" t="n">
+        <v>2.287</v>
+      </c>
+      <c r="D454" t="n">
+        <v>2.287</v>
+      </c>
+      <c r="E454" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F454" t="n">
+        <v>3346009.0276</v>
+      </c>
+      <c r="G454" t="n">
+        <v>-29904018.10474642</v>
+      </c>
+      <c r="H454" t="n">
+        <v>0</v>
+      </c>
+      <c r="I454" t="inlineStr"/>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L454" t="n">
+        <v>1</v>
+      </c>
+      <c r="M454" t="inlineStr"/>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="n">
+        <v>453</v>
+      </c>
+      <c r="B455" t="n">
+        <v>2.287</v>
+      </c>
+      <c r="C455" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D455" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E455" t="n">
+        <v>2.287</v>
+      </c>
+      <c r="F455" t="n">
+        <v>94264.0885</v>
+      </c>
+      <c r="G455" t="n">
+        <v>-29809754.01624642</v>
+      </c>
+      <c r="H455" t="n">
+        <v>0</v>
+      </c>
+      <c r="I455" t="inlineStr"/>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L455" t="n">
+        <v>1</v>
+      </c>
+      <c r="M455" t="inlineStr"/>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="n">
+        <v>454</v>
+      </c>
+      <c r="B456" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C456" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D456" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E456" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="F456" t="n">
+        <v>96563.231</v>
+      </c>
+      <c r="G456" t="n">
+        <v>-29809754.01624642</v>
+      </c>
+      <c r="H456" t="n">
+        <v>0</v>
+      </c>
+      <c r="I456" t="inlineStr"/>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L456" t="n">
+        <v>1</v>
+      </c>
+      <c r="M456" t="inlineStr"/>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="n">
+        <v>455</v>
+      </c>
+      <c r="B457" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C457" t="n">
+        <v>2.322</v>
+      </c>
+      <c r="D457" t="n">
+        <v>2.322</v>
+      </c>
+      <c r="E457" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="F457" t="n">
+        <v>891382.0919317829</v>
+      </c>
+      <c r="G457" t="n">
+        <v>-28918371.92431464</v>
+      </c>
+      <c r="H457" t="n">
+        <v>0</v>
+      </c>
+      <c r="I457" t="inlineStr"/>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L457" t="n">
+        <v>1</v>
+      </c>
+      <c r="M457" t="inlineStr"/>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="n">
+        <v>456</v>
+      </c>
+      <c r="B458" t="n">
+        <v>2.321</v>
+      </c>
+      <c r="C458" t="n">
+        <v>2.331</v>
+      </c>
+      <c r="D458" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="E458" t="n">
+        <v>2.321</v>
+      </c>
+      <c r="F458" t="n">
+        <v>3857630.881785598</v>
+      </c>
+      <c r="G458" t="n">
+        <v>-25060741.04252904</v>
+      </c>
+      <c r="H458" t="n">
+        <v>0</v>
+      </c>
+      <c r="I458" t="inlineStr"/>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L458" t="n">
+        <v>1</v>
+      </c>
+      <c r="M458" t="inlineStr"/>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="n">
+        <v>457</v>
+      </c>
+      <c r="B459" t="n">
+        <v>2.331</v>
+      </c>
+      <c r="C459" t="n">
+        <v>2.354</v>
+      </c>
+      <c r="D459" t="n">
+        <v>2.356</v>
+      </c>
+      <c r="E459" t="n">
+        <v>2.331</v>
+      </c>
+      <c r="F459" t="n">
+        <v>2363840.540882619</v>
+      </c>
+      <c r="G459" t="n">
+        <v>-22696900.50164642</v>
+      </c>
+      <c r="H459" t="n">
+        <v>0</v>
+      </c>
+      <c r="I459" t="inlineStr"/>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L459" t="n">
+        <v>1</v>
+      </c>
+      <c r="M459" t="inlineStr"/>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="n">
+        <v>458</v>
+      </c>
+      <c r="B460" t="n">
+        <v>2.354</v>
+      </c>
+      <c r="C460" t="n">
+        <v>2.321</v>
+      </c>
+      <c r="D460" t="n">
+        <v>2.369</v>
+      </c>
+      <c r="E460" t="n">
+        <v>2.321</v>
+      </c>
+      <c r="F460" t="n">
+        <v>3931069.1095</v>
+      </c>
+      <c r="G460" t="n">
+        <v>-26627969.61114642</v>
+      </c>
+      <c r="H460" t="n">
+        <v>0</v>
+      </c>
+      <c r="I460" t="inlineStr"/>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L460" t="n">
+        <v>1</v>
+      </c>
+      <c r="M460" t="inlineStr"/>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="n">
+        <v>459</v>
+      </c>
+      <c r="B461" t="n">
+        <v>2.368</v>
+      </c>
+      <c r="C461" t="n">
+        <v>2.331</v>
+      </c>
+      <c r="D461" t="n">
+        <v>2.368</v>
+      </c>
+      <c r="E461" t="n">
+        <v>2.331</v>
+      </c>
+      <c r="F461" t="n">
+        <v>157552.5946</v>
+      </c>
+      <c r="G461" t="n">
+        <v>-26470417.01654642</v>
+      </c>
+      <c r="H461" t="n">
+        <v>0</v>
+      </c>
+      <c r="I461" t="inlineStr"/>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L461" t="n">
+        <v>1</v>
+      </c>
+      <c r="M461" t="inlineStr"/>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="n">
+        <v>460</v>
+      </c>
+      <c r="B462" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="C462" t="n">
+        <v>2.331</v>
+      </c>
+      <c r="D462" t="n">
+        <v>2.331</v>
+      </c>
+      <c r="E462" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="F462" t="n">
+        <v>333118.0873</v>
+      </c>
+      <c r="G462" t="n">
+        <v>-26470417.01654642</v>
+      </c>
+      <c r="H462" t="n">
+        <v>0</v>
+      </c>
+      <c r="I462" t="inlineStr"/>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L462" t="n">
+        <v>1</v>
+      </c>
+      <c r="M462" t="inlineStr"/>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="n">
+        <v>461</v>
+      </c>
+      <c r="B463" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="C463" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="D463" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="E463" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="F463" t="n">
+        <v>1015278.767601931</v>
+      </c>
+      <c r="G463" t="n">
+        <v>-27485695.78414835</v>
+      </c>
+      <c r="H463" t="n">
+        <v>0</v>
+      </c>
+      <c r="I463" t="inlineStr"/>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L463" t="n">
+        <v>1</v>
+      </c>
+      <c r="M463" t="inlineStr"/>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="n">
+        <v>462</v>
+      </c>
+      <c r="B464" t="n">
+        <v>2.309</v>
+      </c>
+      <c r="C464" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="D464" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="E464" t="n">
+        <v>2.309</v>
+      </c>
+      <c r="F464" t="n">
+        <v>1666836.79759807</v>
+      </c>
+      <c r="G464" t="n">
+        <v>-27485695.78414835</v>
+      </c>
+      <c r="H464" t="n">
+        <v>0</v>
+      </c>
+      <c r="I464" t="inlineStr"/>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L464" t="n">
+        <v>1</v>
+      </c>
+      <c r="M464" t="inlineStr"/>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="n">
+        <v>463</v>
+      </c>
+      <c r="B465" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="C465" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="D465" t="n">
+        <v>2.367</v>
+      </c>
+      <c r="E465" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="F465" t="n">
+        <v>834460.0468</v>
+      </c>
+      <c r="G465" t="n">
+        <v>-26651235.73734835</v>
+      </c>
+      <c r="H465" t="n">
+        <v>0</v>
+      </c>
+      <c r="I465" t="inlineStr"/>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L465" t="n">
+        <v>1</v>
+      </c>
+      <c r="M465" t="inlineStr"/>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="n">
+        <v>464</v>
+      </c>
+      <c r="B466" t="n">
+        <v>2.349</v>
+      </c>
+      <c r="C466" t="n">
+        <v>2.349</v>
+      </c>
+      <c r="D466" t="n">
+        <v>2.349</v>
+      </c>
+      <c r="E466" t="n">
+        <v>2.349</v>
+      </c>
+      <c r="F466" t="n">
+        <v>351.1103</v>
+      </c>
+      <c r="G466" t="n">
+        <v>-26651586.84764835</v>
+      </c>
+      <c r="H466" t="n">
+        <v>0</v>
+      </c>
+      <c r="I466" t="inlineStr"/>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L466" t="n">
+        <v>1</v>
+      </c>
+      <c r="M466" t="inlineStr"/>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="n">
+        <v>465</v>
+      </c>
+      <c r="B467" t="n">
+        <v>2.349</v>
+      </c>
+      <c r="C467" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="D467" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E467" t="n">
+        <v>2.349</v>
+      </c>
+      <c r="F467" t="n">
+        <v>71929.4281</v>
+      </c>
+      <c r="G467" t="n">
+        <v>-26579657.41954835</v>
+      </c>
+      <c r="H467" t="n">
+        <v>0</v>
+      </c>
+      <c r="I467" t="inlineStr"/>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L467" t="n">
+        <v>1</v>
+      </c>
+      <c r="M467" t="inlineStr"/>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="n">
+        <v>466</v>
+      </c>
+      <c r="B468" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="C468" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="D468" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="E468" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="F468" t="n">
+        <v>691080.6529</v>
+      </c>
+      <c r="G468" t="n">
+        <v>-26579657.41954835</v>
+      </c>
+      <c r="H468" t="n">
+        <v>0</v>
+      </c>
+      <c r="I468" t="inlineStr"/>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L468" t="n">
+        <v>1</v>
+      </c>
+      <c r="M468" t="inlineStr"/>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="n">
+        <v>467</v>
+      </c>
+      <c r="B469" t="n">
+        <v>2.331</v>
+      </c>
+      <c r="C469" t="n">
+        <v>2.318</v>
+      </c>
+      <c r="D469" t="n">
+        <v>2.348</v>
+      </c>
+      <c r="E469" t="n">
+        <v>2.318</v>
+      </c>
+      <c r="F469" t="n">
+        <v>22987.2371</v>
+      </c>
+      <c r="G469" t="n">
+        <v>-26602644.65664835</v>
+      </c>
+      <c r="H469" t="n">
+        <v>0</v>
+      </c>
+      <c r="I469" t="inlineStr"/>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L469" t="n">
+        <v>1</v>
+      </c>
+      <c r="M469" t="inlineStr"/>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="n">
+        <v>468</v>
+      </c>
+      <c r="B470" t="n">
+        <v>2.318</v>
+      </c>
+      <c r="C470" t="n">
+        <v>2.318</v>
+      </c>
+      <c r="D470" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="E470" t="n">
+        <v>2.318</v>
+      </c>
+      <c r="F470" t="n">
+        <v>173290.3168</v>
+      </c>
+      <c r="G470" t="n">
+        <v>-26602644.65664835</v>
+      </c>
+      <c r="H470" t="n">
+        <v>0</v>
+      </c>
+      <c r="I470" t="inlineStr"/>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L470" t="n">
+        <v>1</v>
+      </c>
+      <c r="M470" t="inlineStr"/>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="n">
+        <v>469</v>
+      </c>
+      <c r="B471" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="C471" t="n">
+        <v>2.318</v>
+      </c>
+      <c r="D471" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="E471" t="n">
+        <v>2.318</v>
+      </c>
+      <c r="F471" t="n">
+        <v>168583.5592</v>
+      </c>
+      <c r="G471" t="n">
+        <v>-26602644.65664835</v>
+      </c>
+      <c r="H471" t="n">
+        <v>0</v>
+      </c>
+      <c r="I471" t="inlineStr"/>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L471" t="n">
+        <v>1</v>
+      </c>
+      <c r="M471" t="inlineStr"/>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="n">
+        <v>470</v>
+      </c>
+      <c r="B472" t="n">
+        <v>2.318</v>
+      </c>
+      <c r="C472" t="n">
+        <v>2.339</v>
+      </c>
+      <c r="D472" t="n">
+        <v>2.339</v>
+      </c>
+      <c r="E472" t="n">
+        <v>2.301</v>
+      </c>
+      <c r="F472" t="n">
+        <v>2751.9197</v>
+      </c>
+      <c r="G472" t="n">
+        <v>-26599892.73694835</v>
+      </c>
+      <c r="H472" t="n">
+        <v>0</v>
+      </c>
+      <c r="I472" t="inlineStr"/>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L472" t="n">
+        <v>1</v>
+      </c>
+      <c r="M472" t="inlineStr"/>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="n">
+        <v>471</v>
+      </c>
+      <c r="B473" t="n">
+        <v>2.311</v>
+      </c>
+      <c r="C473" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="D473" t="n">
+        <v>2.338</v>
+      </c>
+      <c r="E473" t="n">
+        <v>2.301</v>
+      </c>
+      <c r="F473" t="n">
+        <v>273483.0752</v>
+      </c>
+      <c r="G473" t="n">
+        <v>-26873375.81214835</v>
+      </c>
+      <c r="H473" t="n">
+        <v>0</v>
+      </c>
+      <c r="I473" t="inlineStr"/>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L473" t="n">
+        <v>1</v>
+      </c>
+      <c r="M473" t="inlineStr"/>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="n">
+        <v>472</v>
+      </c>
+      <c r="B474" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="C474" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="D474" t="n">
+        <v>2.322</v>
+      </c>
+      <c r="E474" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="F474" t="n">
+        <v>101971.4158</v>
+      </c>
+      <c r="G474" t="n">
+        <v>-26771404.39634835</v>
+      </c>
+      <c r="H474" t="n">
+        <v>0</v>
+      </c>
+      <c r="I474" t="inlineStr"/>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L474" t="n">
+        <v>1</v>
+      </c>
+      <c r="M474" t="inlineStr"/>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="n">
+        <v>473</v>
+      </c>
+      <c r="B475" t="n">
+        <v>2.338</v>
+      </c>
+      <c r="C475" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="D475" t="n">
+        <v>2.338</v>
+      </c>
+      <c r="E475" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="F475" t="n">
+        <v>842982.7848</v>
+      </c>
+      <c r="G475" t="n">
+        <v>-27614387.18114835</v>
+      </c>
+      <c r="H475" t="n">
+        <v>0</v>
+      </c>
+      <c r="I475" t="inlineStr"/>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L475" t="n">
+        <v>1</v>
+      </c>
+      <c r="M475" t="inlineStr"/>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="n">
+        <v>474</v>
+      </c>
+      <c r="B476" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="C476" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D476" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E476" t="n">
+        <v>2.271</v>
+      </c>
+      <c r="F476" t="n">
+        <v>4108598.7405</v>
+      </c>
+      <c r="G476" t="n">
+        <v>-23505788.44064835</v>
+      </c>
+      <c r="H476" t="n">
+        <v>0</v>
+      </c>
+      <c r="I476" t="inlineStr"/>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L476" t="n">
+        <v>1</v>
+      </c>
+      <c r="M476" t="inlineStr"/>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="n">
+        <v>475</v>
+      </c>
+      <c r="B477" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="C477" t="n">
+        <v>2.312</v>
+      </c>
+      <c r="D477" t="n">
+        <v>2.312</v>
+      </c>
+      <c r="E477" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="F477" t="n">
+        <v>323435.7453</v>
+      </c>
+      <c r="G477" t="n">
+        <v>-23182352.69534835</v>
+      </c>
+      <c r="H477" t="n">
+        <v>0</v>
+      </c>
+      <c r="I477" t="inlineStr"/>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L477" t="n">
+        <v>1</v>
+      </c>
+      <c r="M477" t="inlineStr"/>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="n">
+        <v>476</v>
+      </c>
+      <c r="B478" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="C478" t="n">
+        <v>2.398</v>
+      </c>
+      <c r="D478" t="n">
+        <v>2.398</v>
+      </c>
+      <c r="E478" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="F478" t="n">
+        <v>8461941.091700001</v>
+      </c>
+      <c r="G478" t="n">
+        <v>-14720411.60364835</v>
+      </c>
+      <c r="H478" t="n">
+        <v>0</v>
+      </c>
+      <c r="I478" t="inlineStr"/>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L478" t="n">
+        <v>1</v>
+      </c>
+      <c r="M478" t="inlineStr"/>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="n">
+        <v>477</v>
+      </c>
+      <c r="B479" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="C479" t="n">
+        <v>2.397</v>
+      </c>
+      <c r="D479" t="n">
+        <v>2.397</v>
+      </c>
+      <c r="E479" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="F479" t="n">
+        <v>540570.2246</v>
+      </c>
+      <c r="G479" t="n">
+        <v>-15260981.82824835</v>
+      </c>
+      <c r="H479" t="n">
+        <v>0</v>
+      </c>
+      <c r="I479" t="inlineStr"/>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L479" t="n">
+        <v>1</v>
+      </c>
+      <c r="M479" t="inlineStr"/>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="n">
+        <v>478</v>
+      </c>
+      <c r="B480" t="n">
+        <v>2.396</v>
+      </c>
+      <c r="C480" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="D480" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="E480" t="n">
+        <v>2.396</v>
+      </c>
+      <c r="F480" t="n">
+        <v>5781183.531</v>
+      </c>
+      <c r="G480" t="n">
+        <v>-9479798.297248352</v>
+      </c>
+      <c r="H480" t="n">
+        <v>0</v>
+      </c>
+      <c r="I480" t="inlineStr"/>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L480" t="n">
+        <v>1</v>
+      </c>
+      <c r="M480" t="inlineStr"/>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="n">
+        <v>479</v>
+      </c>
+      <c r="B481" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="C481" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="D481" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="E481" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="F481" t="n">
+        <v>560642.7713</v>
+      </c>
+      <c r="G481" t="n">
+        <v>-8919155.525948353</v>
+      </c>
+      <c r="H481" t="n">
+        <v>0</v>
+      </c>
+      <c r="I481" t="inlineStr"/>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L481" t="n">
+        <v>1</v>
+      </c>
+      <c r="M481" t="inlineStr"/>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="B482" t="n">
+        <v>2.425</v>
+      </c>
+      <c r="C482" t="n">
+        <v>2.415</v>
+      </c>
+      <c r="D482" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="E482" t="n">
+        <v>2.415</v>
+      </c>
+      <c r="F482" t="n">
+        <v>859930.3903453416</v>
+      </c>
+      <c r="G482" t="n">
+        <v>-9779085.916293696</v>
+      </c>
+      <c r="H482" t="n">
+        <v>0</v>
+      </c>
+      <c r="I482" t="inlineStr"/>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L482" t="n">
+        <v>1</v>
+      </c>
+      <c r="M482" t="inlineStr"/>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="B483" t="n">
+        <v>2.415</v>
+      </c>
+      <c r="C483" t="n">
+        <v>2.415</v>
+      </c>
+      <c r="D483" t="n">
+        <v>2.415</v>
+      </c>
+      <c r="E483" t="n">
+        <v>2.415</v>
+      </c>
+      <c r="F483" t="n">
+        <v>122642.9743</v>
+      </c>
+      <c r="G483" t="n">
+        <v>-9779085.916293696</v>
+      </c>
+      <c r="H483" t="n">
+        <v>0</v>
+      </c>
+      <c r="I483" t="inlineStr"/>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L483" t="n">
+        <v>1</v>
+      </c>
+      <c r="M483" t="inlineStr"/>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="n">
+        <v>482</v>
+      </c>
+      <c r="B484" t="n">
+        <v>2.381</v>
+      </c>
+      <c r="C484" t="n">
+        <v>2.367</v>
+      </c>
+      <c r="D484" t="n">
+        <v>2.381</v>
+      </c>
+      <c r="E484" t="n">
+        <v>2.366</v>
+      </c>
+      <c r="F484" t="n">
+        <v>2274803.3154</v>
+      </c>
+      <c r="G484" t="n">
+        <v>-12053889.2316937</v>
+      </c>
+      <c r="H484" t="n">
+        <v>0</v>
+      </c>
+      <c r="I484" t="inlineStr"/>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L484" t="n">
+        <v>1</v>
+      </c>
+      <c r="M484" t="inlineStr"/>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="n">
+        <v>483</v>
+      </c>
+      <c r="B485" t="n">
+        <v>2.367</v>
+      </c>
+      <c r="C485" t="n">
+        <v>2.367</v>
+      </c>
+      <c r="D485" t="n">
+        <v>2.367</v>
+      </c>
+      <c r="E485" t="n">
+        <v>2.367</v>
+      </c>
+      <c r="F485" t="n">
+        <v>337472.7353</v>
+      </c>
+      <c r="G485" t="n">
+        <v>-12053889.2316937</v>
+      </c>
+      <c r="H485" t="n">
+        <v>0</v>
+      </c>
+      <c r="I485" t="inlineStr"/>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L485" t="n">
+        <v>1</v>
+      </c>
+      <c r="M485" t="inlineStr"/>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="n">
+        <v>484</v>
+      </c>
+      <c r="B486" t="n">
+        <v>2.368</v>
+      </c>
+      <c r="C486" t="n">
+        <v>2.381</v>
+      </c>
+      <c r="D486" t="n">
+        <v>2.381</v>
+      </c>
+      <c r="E486" t="n">
+        <v>2.368</v>
+      </c>
+      <c r="F486" t="n">
+        <v>750741.1594</v>
+      </c>
+      <c r="G486" t="n">
+        <v>-11303148.0722937</v>
+      </c>
+      <c r="H486" t="n">
+        <v>0</v>
+      </c>
+      <c r="I486" t="inlineStr"/>
+      <c r="J486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L486" t="n">
+        <v>1</v>
+      </c>
+      <c r="M486" t="inlineStr"/>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="n">
+        <v>485</v>
+      </c>
+      <c r="B487" t="n">
+        <v>2.381</v>
+      </c>
+      <c r="C487" t="n">
+        <v>2.381</v>
+      </c>
+      <c r="D487" t="n">
+        <v>2.399</v>
+      </c>
+      <c r="E487" t="n">
+        <v>2.381</v>
+      </c>
+      <c r="F487" t="n">
+        <v>120037.6443152147</v>
+      </c>
+      <c r="G487" t="n">
+        <v>-11303148.0722937</v>
+      </c>
+      <c r="H487" t="n">
+        <v>0</v>
+      </c>
+      <c r="I487" t="inlineStr"/>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L487" t="n">
+        <v>1</v>
+      </c>
+      <c r="M487" t="inlineStr"/>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="n">
+        <v>486</v>
+      </c>
+      <c r="B488" t="n">
+        <v>2.381</v>
+      </c>
+      <c r="C488" t="n">
+        <v>2.381</v>
+      </c>
+      <c r="D488" t="n">
+        <v>2.399</v>
+      </c>
+      <c r="E488" t="n">
+        <v>2.381</v>
+      </c>
+      <c r="F488" t="n">
+        <v>984508.3406999999</v>
+      </c>
+      <c r="G488" t="n">
+        <v>-11303148.0722937</v>
+      </c>
+      <c r="H488" t="n">
+        <v>0</v>
+      </c>
+      <c r="I488" t="inlineStr"/>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L488" t="n">
+        <v>1</v>
+      </c>
+      <c r="M488" t="inlineStr"/>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="n">
+        <v>487</v>
+      </c>
+      <c r="B489" t="n">
+        <v>2.381</v>
+      </c>
+      <c r="C489" t="n">
+        <v>2.415</v>
+      </c>
+      <c r="D489" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="E489" t="n">
+        <v>2.373</v>
+      </c>
+      <c r="F489" t="n">
+        <v>1951568.420139444</v>
+      </c>
+      <c r="G489" t="n">
+        <v>-9351579.652154252</v>
+      </c>
+      <c r="H489" t="n">
+        <v>0</v>
+      </c>
+      <c r="I489" t="inlineStr"/>
+      <c r="J489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L489" t="n">
+        <v>1</v>
+      </c>
+      <c r="M489" t="inlineStr"/>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="n">
+        <v>488</v>
+      </c>
+      <c r="B490" t="n">
+        <v>2.415</v>
+      </c>
+      <c r="C490" t="n">
+        <v>2.415</v>
+      </c>
+      <c r="D490" t="n">
+        <v>2.415</v>
+      </c>
+      <c r="E490" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="F490" t="n">
+        <v>824077.7884</v>
+      </c>
+      <c r="G490" t="n">
+        <v>-9351579.652154252</v>
+      </c>
+      <c r="H490" t="n">
         <v>2</v>
       </c>
-      <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>2.138</v>
-      </c>
-      <c r="K395" t="inlineStr">
+      <c r="I490" t="inlineStr"/>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L395" t="n">
-        <v>1.077787652011226</v>
-      </c>
-      <c r="M395" t="n">
-        <v>1.039480019258546</v>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" s="1" t="n">
-        <v>394</v>
-      </c>
-      <c r="B396" t="n">
-        <v>2.315</v>
-      </c>
-      <c r="C396" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="D396" t="n">
-        <v>2.315</v>
-      </c>
-      <c r="E396" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="F396" t="n">
-        <v>806999.4009529158</v>
-      </c>
-      <c r="G396" t="n">
-        <v>-21887256.59181494</v>
-      </c>
-      <c r="H396" t="n">
-        <v>2</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
-      <c r="L396" t="n">
-        <v>1</v>
-      </c>
-      <c r="M396" t="inlineStr"/>
-    </row>
-    <row r="397">
-      <c r="A397" s="1" t="n">
-        <v>395</v>
-      </c>
-      <c r="B397" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="C397" t="n">
-        <v>2.277</v>
-      </c>
-      <c r="D397" t="n">
-        <v>2.313</v>
-      </c>
-      <c r="E397" t="n">
-        <v>2.274</v>
-      </c>
-      <c r="F397" t="n">
-        <v>3333514.8872</v>
-      </c>
-      <c r="G397" t="n">
-        <v>-18553741.70461494</v>
-      </c>
-      <c r="H397" t="n">
-        <v>2</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
-      <c r="L397" t="n">
-        <v>1</v>
-      </c>
-      <c r="M397" t="inlineStr"/>
-    </row>
-    <row r="398">
-      <c r="A398" s="1" t="n">
-        <v>396</v>
-      </c>
-      <c r="B398" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="C398" t="n">
-        <v>2.312</v>
-      </c>
-      <c r="D398" t="n">
-        <v>2.312</v>
-      </c>
-      <c r="E398" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="F398" t="n">
-        <v>3380589.15559308</v>
-      </c>
-      <c r="G398" t="n">
-        <v>-15173152.54902186</v>
-      </c>
-      <c r="H398" t="n">
-        <v>2</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
-      <c r="L398" t="n">
-        <v>1</v>
-      </c>
-      <c r="M398" t="inlineStr"/>
-    </row>
-    <row r="399">
-      <c r="A399" s="1" t="n">
-        <v>397</v>
-      </c>
-      <c r="B399" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="C399" t="n">
-        <v>2.309</v>
-      </c>
-      <c r="D399" t="n">
-        <v>2.312</v>
-      </c>
-      <c r="E399" t="n">
-        <v>2.309</v>
-      </c>
-      <c r="F399" t="n">
-        <v>5211924.857824568</v>
-      </c>
-      <c r="G399" t="n">
-        <v>-20385077.40684643</v>
-      </c>
-      <c r="H399" t="n">
-        <v>2</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
-      <c r="L399" t="n">
-        <v>1</v>
-      </c>
-      <c r="M399" t="inlineStr"/>
-    </row>
-    <row r="400">
-      <c r="A400" s="1" t="n">
-        <v>398</v>
-      </c>
-      <c r="B400" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="C400" t="n">
-        <v>2.279</v>
-      </c>
-      <c r="D400" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="E400" t="n">
-        <v>2.279</v>
-      </c>
-      <c r="F400" t="n">
-        <v>387768.0007</v>
-      </c>
-      <c r="G400" t="n">
-        <v>-20772845.40754643</v>
-      </c>
-      <c r="H400" t="n">
-        <v>2</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
-      <c r="L400" t="n">
-        <v>1</v>
-      </c>
-      <c r="M400" t="inlineStr"/>
-    </row>
-    <row r="401">
-      <c r="A401" s="1" t="n">
-        <v>399</v>
-      </c>
-      <c r="B401" t="n">
-        <v>2.275</v>
-      </c>
-      <c r="C401" t="n">
-        <v>2.266</v>
-      </c>
-      <c r="D401" t="n">
-        <v>2.275</v>
-      </c>
-      <c r="E401" t="n">
-        <v>2.266</v>
-      </c>
-      <c r="F401" t="n">
-        <v>749317.0046</v>
-      </c>
-      <c r="G401" t="n">
-        <v>-21522162.41214643</v>
-      </c>
-      <c r="H401" t="n">
-        <v>2</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
-      <c r="L401" t="n">
-        <v>1</v>
-      </c>
-      <c r="M401" t="inlineStr"/>
-    </row>
-    <row r="402">
-      <c r="A402" s="1" t="n">
-        <v>400</v>
-      </c>
-      <c r="B402" t="n">
-        <v>2.266</v>
-      </c>
-      <c r="C402" t="n">
-        <v>2.248</v>
-      </c>
-      <c r="D402" t="n">
-        <v>2.266</v>
-      </c>
-      <c r="E402" t="n">
-        <v>2.248</v>
-      </c>
-      <c r="F402" t="n">
-        <v>7453284.5758</v>
-      </c>
-      <c r="G402" t="n">
-        <v>-28975446.98794643</v>
-      </c>
-      <c r="H402" t="n">
-        <v>2</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
-      <c r="L402" t="n">
-        <v>1</v>
-      </c>
-      <c r="M402" t="inlineStr"/>
-    </row>
-    <row r="403">
-      <c r="A403" s="1" t="n">
-        <v>401</v>
-      </c>
-      <c r="B403" t="n">
-        <v>2.251</v>
-      </c>
-      <c r="C403" t="n">
-        <v>2.248</v>
-      </c>
-      <c r="D403" t="n">
-        <v>2.251</v>
-      </c>
-      <c r="E403" t="n">
-        <v>2.248</v>
-      </c>
-      <c r="F403" t="n">
-        <v>121462.5695</v>
-      </c>
-      <c r="G403" t="n">
-        <v>-28975446.98794643</v>
-      </c>
-      <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
-      <c r="L403" t="n">
-        <v>1</v>
-      </c>
-      <c r="M403" t="inlineStr"/>
-    </row>
-    <row r="404">
-      <c r="A404" s="1" t="n">
-        <v>402</v>
-      </c>
-      <c r="B404" t="n">
-        <v>2.251</v>
-      </c>
-      <c r="C404" t="n">
-        <v>2.243</v>
-      </c>
-      <c r="D404" t="n">
-        <v>2.251</v>
-      </c>
-      <c r="E404" t="n">
-        <v>2.243</v>
-      </c>
-      <c r="F404" t="n">
-        <v>1145798.403</v>
-      </c>
-      <c r="G404" t="n">
-        <v>-30121245.39094643</v>
-      </c>
-      <c r="H404" t="n">
-        <v>0</v>
-      </c>
-      <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
-      <c r="L404" t="n">
-        <v>1</v>
-      </c>
-      <c r="M404" t="inlineStr"/>
-    </row>
-    <row r="405">
-      <c r="A405" s="1" t="n">
-        <v>403</v>
-      </c>
-      <c r="B405" t="n">
-        <v>2.248</v>
-      </c>
-      <c r="C405" t="n">
-        <v>2.251</v>
-      </c>
-      <c r="D405" t="n">
-        <v>2.251</v>
-      </c>
-      <c r="E405" t="n">
-        <v>2.248</v>
-      </c>
-      <c r="F405" t="n">
-        <v>832482.833</v>
-      </c>
-      <c r="G405" t="n">
-        <v>-29288762.55794643</v>
-      </c>
-      <c r="H405" t="n">
-        <v>0</v>
-      </c>
-      <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
-      <c r="L405" t="n">
-        <v>1</v>
-      </c>
-      <c r="M405" t="inlineStr"/>
-    </row>
-    <row r="406">
-      <c r="A406" s="1" t="n">
-        <v>404</v>
-      </c>
-      <c r="B406" t="n">
-        <v>2.244</v>
-      </c>
-      <c r="C406" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="D406" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="E406" t="n">
-        <v>2.244</v>
-      </c>
-      <c r="F406" t="n">
-        <v>1275686.1284</v>
-      </c>
-      <c r="G406" t="n">
-        <v>-28013076.42954643</v>
-      </c>
-      <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
-      <c r="L406" t="n">
-        <v>1</v>
-      </c>
-      <c r="M406" t="inlineStr"/>
-    </row>
-    <row r="407">
-      <c r="A407" s="1" t="n">
-        <v>405</v>
-      </c>
-      <c r="B407" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="C407" t="n">
-        <v>2.288</v>
-      </c>
-      <c r="D407" t="n">
-        <v>2.288</v>
-      </c>
-      <c r="E407" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="F407" t="n">
-        <v>117700.9922</v>
-      </c>
-      <c r="G407" t="n">
-        <v>-27895375.43734643</v>
-      </c>
-      <c r="H407" t="n">
-        <v>0</v>
-      </c>
-      <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
-      <c r="L407" t="n">
-        <v>1</v>
-      </c>
-      <c r="M407" t="inlineStr"/>
-    </row>
-    <row r="408">
-      <c r="A408" s="1" t="n">
-        <v>406</v>
-      </c>
-      <c r="B408" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="C408" t="n">
-        <v>2.286</v>
-      </c>
-      <c r="D408" t="n">
-        <v>2.286</v>
-      </c>
-      <c r="E408" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="F408" t="n">
-        <v>152732.2026</v>
-      </c>
-      <c r="G408" t="n">
-        <v>-28048107.63994643</v>
-      </c>
-      <c r="H408" t="n">
-        <v>2</v>
-      </c>
-      <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
-      <c r="L408" t="n">
-        <v>1</v>
-      </c>
-      <c r="M408" t="inlineStr"/>
-    </row>
-    <row r="409">
-      <c r="A409" s="1" t="n">
-        <v>407</v>
-      </c>
-      <c r="B409" t="n">
-        <v>2.285</v>
-      </c>
-      <c r="C409" t="n">
-        <v>2.285</v>
-      </c>
-      <c r="D409" t="n">
-        <v>2.285</v>
-      </c>
-      <c r="E409" t="n">
-        <v>2.285</v>
-      </c>
-      <c r="F409" t="n">
-        <v>130963.6237</v>
-      </c>
-      <c r="G409" t="n">
-        <v>-28179071.26364643</v>
-      </c>
-      <c r="H409" t="n">
-        <v>0</v>
-      </c>
-      <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
-      <c r="L409" t="n">
-        <v>1</v>
-      </c>
-      <c r="M409" t="inlineStr"/>
-    </row>
-    <row r="410">
-      <c r="A410" s="1" t="n">
-        <v>408</v>
-      </c>
-      <c r="B410" t="n">
-        <v>2.262</v>
-      </c>
-      <c r="C410" t="n">
-        <v>2.243</v>
-      </c>
-      <c r="D410" t="n">
-        <v>2.262</v>
-      </c>
-      <c r="E410" t="n">
-        <v>2.243</v>
-      </c>
-      <c r="F410" t="n">
-        <v>1093387.0447</v>
-      </c>
-      <c r="G410" t="n">
-        <v>-29272458.30834643</v>
-      </c>
-      <c r="H410" t="n">
-        <v>0</v>
-      </c>
-      <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
-      <c r="L410" t="n">
-        <v>1</v>
-      </c>
-      <c r="M410" t="inlineStr"/>
-    </row>
-    <row r="411">
-      <c r="A411" s="1" t="n">
-        <v>409</v>
-      </c>
-      <c r="B411" t="n">
-        <v>2.245</v>
-      </c>
-      <c r="C411" t="n">
-        <v>2.261</v>
-      </c>
-      <c r="D411" t="n">
-        <v>2.261</v>
-      </c>
-      <c r="E411" t="n">
-        <v>2.232</v>
-      </c>
-      <c r="F411" t="n">
-        <v>547705.8297999999</v>
-      </c>
-      <c r="G411" t="n">
-        <v>-28724752.47854643</v>
-      </c>
-      <c r="H411" t="n">
-        <v>0</v>
-      </c>
-      <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
-      <c r="L411" t="n">
-        <v>1</v>
-      </c>
-      <c r="M411" t="inlineStr"/>
-    </row>
-    <row r="412">
-      <c r="A412" s="1" t="n">
-        <v>410</v>
-      </c>
-      <c r="B412" t="n">
-        <v>2.232</v>
-      </c>
-      <c r="C412" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="D412" t="n">
-        <v>2.232</v>
-      </c>
-      <c r="E412" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="F412" t="n">
-        <v>245527.0294</v>
-      </c>
-      <c r="G412" t="n">
-        <v>-28970279.50794643</v>
-      </c>
-      <c r="H412" t="n">
-        <v>0</v>
-      </c>
-      <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
-      <c r="L412" t="n">
-        <v>1</v>
-      </c>
-      <c r="M412" t="inlineStr"/>
-    </row>
-    <row r="413">
-      <c r="A413" s="1" t="n">
-        <v>411</v>
-      </c>
-      <c r="B413" t="n">
-        <v>2.215</v>
-      </c>
-      <c r="C413" t="n">
-        <v>2.215</v>
-      </c>
-      <c r="D413" t="n">
-        <v>2.215</v>
-      </c>
-      <c r="E413" t="n">
-        <v>2.215</v>
-      </c>
-      <c r="F413" t="n">
-        <v>69627.24950000001</v>
-      </c>
-      <c r="G413" t="n">
-        <v>-29039906.75744643</v>
-      </c>
-      <c r="H413" t="n">
-        <v>2</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
-      <c r="L413" t="n">
-        <v>1</v>
-      </c>
-      <c r="M413" t="inlineStr"/>
-    </row>
-    <row r="414">
-      <c r="A414" s="1" t="n">
-        <v>412</v>
-      </c>
-      <c r="B414" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="C414" t="n">
-        <v>2.222</v>
-      </c>
-      <c r="D414" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="E414" t="n">
-        <v>2.222</v>
-      </c>
-      <c r="F414" t="n">
-        <v>452352.2566</v>
-      </c>
-      <c r="G414" t="n">
-        <v>-28587554.50084643</v>
-      </c>
-      <c r="H414" t="n">
-        <v>0</v>
-      </c>
-      <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
-      <c r="L414" t="n">
-        <v>1</v>
-      </c>
-      <c r="M414" t="inlineStr"/>
-    </row>
-    <row r="415">
-      <c r="A415" s="1" t="n">
-        <v>413</v>
-      </c>
-      <c r="B415" t="n">
-        <v>2.222</v>
-      </c>
-      <c r="C415" t="n">
-        <v>2.222</v>
-      </c>
-      <c r="D415" t="n">
-        <v>2.222</v>
-      </c>
-      <c r="E415" t="n">
-        <v>2.222</v>
-      </c>
-      <c r="F415" t="n">
-        <v>20280.709</v>
-      </c>
-      <c r="G415" t="n">
-        <v>-28587554.50084643</v>
-      </c>
-      <c r="H415" t="n">
-        <v>2</v>
-      </c>
-      <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
-      <c r="L415" t="n">
-        <v>1</v>
-      </c>
-      <c r="M415" t="inlineStr"/>
-    </row>
-    <row r="416">
-      <c r="A416" s="1" t="n">
-        <v>414</v>
-      </c>
-      <c r="B416" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="C416" t="n">
-        <v>2.249</v>
-      </c>
-      <c r="D416" t="n">
-        <v>2.249</v>
-      </c>
-      <c r="E416" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="F416" t="n">
-        <v>368228.8844</v>
-      </c>
-      <c r="G416" t="n">
-        <v>-28219325.61644643</v>
-      </c>
-      <c r="H416" t="n">
-        <v>2</v>
-      </c>
-      <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
-      <c r="L416" t="n">
-        <v>1</v>
-      </c>
-      <c r="M416" t="inlineStr"/>
-    </row>
-    <row r="417">
-      <c r="A417" s="1" t="n">
-        <v>415</v>
-      </c>
-      <c r="B417" t="n">
-        <v>2.241</v>
-      </c>
-      <c r="C417" t="n">
-        <v>2.239</v>
-      </c>
-      <c r="D417" t="n">
-        <v>2.241</v>
-      </c>
-      <c r="E417" t="n">
-        <v>2.239</v>
-      </c>
-      <c r="F417" t="n">
-        <v>1532424.4075</v>
-      </c>
-      <c r="G417" t="n">
-        <v>-29751750.02394643</v>
-      </c>
-      <c r="H417" t="n">
-        <v>2</v>
-      </c>
-      <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
-      <c r="L417" t="n">
-        <v>1</v>
-      </c>
-      <c r="M417" t="inlineStr"/>
-    </row>
-    <row r="418">
-      <c r="A418" s="1" t="n">
-        <v>416</v>
-      </c>
-      <c r="B418" t="n">
-        <v>2.239</v>
-      </c>
-      <c r="C418" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="D418" t="n">
-        <v>2.239</v>
-      </c>
-      <c r="E418" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="F418" t="n">
-        <v>124167.6844</v>
-      </c>
-      <c r="G418" t="n">
-        <v>-29875917.70834643</v>
-      </c>
-      <c r="H418" t="n">
-        <v>2</v>
-      </c>
-      <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
-      <c r="L418" t="n">
-        <v>1</v>
-      </c>
-      <c r="M418" t="inlineStr"/>
-    </row>
-    <row r="419">
-      <c r="A419" s="1" t="n">
-        <v>417</v>
-      </c>
-      <c r="B419" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="C419" t="n">
-        <v>2.205</v>
-      </c>
-      <c r="D419" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="E419" t="n">
-        <v>2.205</v>
-      </c>
-      <c r="F419" t="n">
-        <v>1850530.0452</v>
-      </c>
-      <c r="G419" t="n">
-        <v>-31726447.75354643</v>
-      </c>
-      <c r="H419" t="n">
-        <v>2</v>
-      </c>
-      <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
-      <c r="L419" t="n">
-        <v>1</v>
-      </c>
-      <c r="M419" t="inlineStr"/>
-    </row>
-    <row r="420">
-      <c r="A420" s="1" t="n">
-        <v>418</v>
-      </c>
-      <c r="B420" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="C420" t="n">
-        <v>2.231</v>
-      </c>
-      <c r="D420" t="n">
-        <v>2.231</v>
-      </c>
-      <c r="E420" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="F420" t="n">
-        <v>95384.65889999999</v>
-      </c>
-      <c r="G420" t="n">
-        <v>-31631063.09464643</v>
-      </c>
-      <c r="H420" t="n">
-        <v>2</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
-      <c r="L420" t="n">
-        <v>1</v>
-      </c>
-      <c r="M420" t="inlineStr"/>
-    </row>
-    <row r="421">
-      <c r="A421" s="1" t="n">
-        <v>419</v>
-      </c>
-      <c r="B421" t="n">
-        <v>2.231</v>
-      </c>
-      <c r="C421" t="n">
-        <v>2.209</v>
-      </c>
-      <c r="D421" t="n">
-        <v>2.231</v>
-      </c>
-      <c r="E421" t="n">
-        <v>2.209</v>
-      </c>
-      <c r="F421" t="n">
-        <v>2746657.5849</v>
-      </c>
-      <c r="G421" t="n">
-        <v>-34377720.67954643</v>
-      </c>
-      <c r="H421" t="n">
-        <v>2</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
-      <c r="L421" t="n">
-        <v>1</v>
-      </c>
-      <c r="M421" t="inlineStr"/>
-    </row>
-    <row r="422">
-      <c r="A422" s="1" t="n">
-        <v>420</v>
-      </c>
-      <c r="B422" t="n">
-        <v>2.209</v>
-      </c>
-      <c r="C422" t="n">
-        <v>2.239</v>
-      </c>
-      <c r="D422" t="n">
-        <v>2.239</v>
-      </c>
-      <c r="E422" t="n">
-        <v>2.209</v>
-      </c>
-      <c r="F422" t="n">
-        <v>271448.1109</v>
-      </c>
-      <c r="G422" t="n">
-        <v>-34106272.56864643</v>
-      </c>
-      <c r="H422" t="n">
-        <v>2</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
-      <c r="L422" t="n">
-        <v>1</v>
-      </c>
-      <c r="M422" t="inlineStr"/>
-    </row>
-    <row r="423">
-      <c r="A423" s="1" t="n">
-        <v>421</v>
-      </c>
-      <c r="B423" t="n">
-        <v>2.213</v>
-      </c>
-      <c r="C423" t="n">
-        <v>2.211</v>
-      </c>
-      <c r="D423" t="n">
-        <v>2.213</v>
-      </c>
-      <c r="E423" t="n">
-        <v>2.211</v>
-      </c>
-      <c r="F423" t="n">
-        <v>375793.9489</v>
-      </c>
-      <c r="G423" t="n">
-        <v>-34482066.51754643</v>
-      </c>
-      <c r="H423" t="n">
-        <v>2</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
-      <c r="L423" t="n">
-        <v>1</v>
-      </c>
-      <c r="M423" t="inlineStr"/>
-    </row>
-    <row r="424">
-      <c r="A424" s="1" t="n">
-        <v>422</v>
-      </c>
-      <c r="B424" t="n">
-        <v>2.211</v>
-      </c>
-      <c r="C424" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="D424" t="n">
-        <v>2.211</v>
-      </c>
-      <c r="E424" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="F424" t="n">
-        <v>517487.3284</v>
-      </c>
-      <c r="G424" t="n">
-        <v>-34999553.84594643</v>
-      </c>
-      <c r="H424" t="n">
-        <v>2</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
-      <c r="L424" t="n">
-        <v>1</v>
-      </c>
-      <c r="M424" t="inlineStr"/>
-    </row>
-    <row r="425">
-      <c r="A425" s="1" t="n">
-        <v>423</v>
-      </c>
-      <c r="B425" t="n">
-        <v>2.208</v>
-      </c>
-      <c r="C425" t="n">
-        <v>2.207</v>
-      </c>
-      <c r="D425" t="n">
-        <v>2.208</v>
-      </c>
-      <c r="E425" t="n">
-        <v>2.207</v>
-      </c>
-      <c r="F425" t="n">
-        <v>50614.2159</v>
-      </c>
-      <c r="G425" t="n">
-        <v>-35050168.06184643</v>
-      </c>
-      <c r="H425" t="n">
-        <v>2</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
-      <c r="L425" t="n">
-        <v>1</v>
-      </c>
-      <c r="M425" t="inlineStr"/>
-    </row>
-    <row r="426">
-      <c r="A426" s="1" t="n">
-        <v>424</v>
-      </c>
-      <c r="B426" t="n">
-        <v>2.207</v>
-      </c>
-      <c r="C426" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="D426" t="n">
-        <v>2.207</v>
-      </c>
-      <c r="E426" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="F426" t="n">
-        <v>2176585.3533</v>
-      </c>
-      <c r="G426" t="n">
-        <v>-37226753.41514643</v>
-      </c>
-      <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
-      <c r="L426" t="n">
-        <v>1</v>
-      </c>
-      <c r="M426" t="inlineStr"/>
-    </row>
-    <row r="427">
-      <c r="A427" s="1" t="n">
-        <v>425</v>
-      </c>
-      <c r="B427" t="n">
-        <v>2.211</v>
-      </c>
-      <c r="C427" t="n">
-        <v>2.195</v>
-      </c>
-      <c r="D427" t="n">
-        <v>2.211</v>
-      </c>
-      <c r="E427" t="n">
-        <v>2.195</v>
-      </c>
-      <c r="F427" t="n">
-        <v>540</v>
-      </c>
-      <c r="G427" t="n">
-        <v>-37227293.41514643</v>
-      </c>
-      <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
-      <c r="L427" t="n">
-        <v>1</v>
-      </c>
-      <c r="M427" t="inlineStr"/>
-    </row>
-    <row r="428">
-      <c r="A428" s="1" t="n">
-        <v>426</v>
-      </c>
-      <c r="B428" t="n">
-        <v>2.211</v>
-      </c>
-      <c r="C428" t="n">
-        <v>2.208</v>
-      </c>
-      <c r="D428" t="n">
-        <v>2.229</v>
-      </c>
-      <c r="E428" t="n">
-        <v>2.208</v>
-      </c>
-      <c r="F428" t="n">
-        <v>202456</v>
-      </c>
-      <c r="G428" t="n">
-        <v>-37024837.41514643</v>
-      </c>
-      <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
-      <c r="L428" t="n">
-        <v>1</v>
-      </c>
-      <c r="M428" t="inlineStr"/>
-    </row>
-    <row r="429">
-      <c r="A429" s="1" t="n">
-        <v>427</v>
-      </c>
-      <c r="B429" t="n">
-        <v>2.208</v>
-      </c>
-      <c r="C429" t="n">
-        <v>2.208</v>
-      </c>
-      <c r="D429" t="n">
-        <v>2.208</v>
-      </c>
-      <c r="E429" t="n">
-        <v>2.208</v>
-      </c>
-      <c r="F429" t="n">
-        <v>2756</v>
-      </c>
-      <c r="G429" t="n">
-        <v>-37024837.41514643</v>
-      </c>
-      <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
-      <c r="L429" t="n">
-        <v>1</v>
-      </c>
-      <c r="M429" t="inlineStr"/>
-    </row>
-    <row r="430">
-      <c r="A430" s="1" t="n">
-        <v>428</v>
-      </c>
-      <c r="B430" t="n">
-        <v>2.229</v>
-      </c>
-      <c r="C430" t="n">
-        <v>2.229</v>
-      </c>
-      <c r="D430" t="n">
-        <v>2.229</v>
-      </c>
-      <c r="E430" t="n">
-        <v>2.229</v>
-      </c>
-      <c r="F430" t="n">
-        <v>234</v>
-      </c>
-      <c r="G430" t="n">
-        <v>-37024603.41514643</v>
-      </c>
-      <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
-      <c r="L430" t="n">
-        <v>1</v>
-      </c>
-      <c r="M430" t="inlineStr"/>
-    </row>
-    <row r="431">
-      <c r="A431" s="1" t="n">
-        <v>429</v>
-      </c>
-      <c r="B431" t="n">
-        <v>2.229</v>
-      </c>
-      <c r="C431" t="n">
-        <v>2.231</v>
-      </c>
-      <c r="D431" t="n">
-        <v>2.231</v>
-      </c>
-      <c r="E431" t="n">
-        <v>2.229</v>
-      </c>
-      <c r="F431" t="n">
-        <v>971482.2161</v>
-      </c>
-      <c r="G431" t="n">
-        <v>-36053121.19904643</v>
-      </c>
-      <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
-      <c r="L431" t="n">
-        <v>1</v>
-      </c>
-      <c r="M431" t="inlineStr"/>
-    </row>
-    <row r="432">
-      <c r="A432" s="1" t="n">
-        <v>430</v>
-      </c>
-      <c r="B432" t="n">
-        <v>2.232</v>
-      </c>
-      <c r="C432" t="n">
-        <v>2.238</v>
-      </c>
-      <c r="D432" t="n">
-        <v>2.238</v>
-      </c>
-      <c r="E432" t="n">
-        <v>2.232</v>
-      </c>
-      <c r="F432" t="n">
-        <v>2503811.6238</v>
-      </c>
-      <c r="G432" t="n">
-        <v>-33549309.57524642</v>
-      </c>
-      <c r="H432" t="n">
-        <v>2</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
-      <c r="L432" t="n">
-        <v>1</v>
-      </c>
-      <c r="M432" t="inlineStr"/>
-    </row>
-    <row r="433">
-      <c r="A433" s="1" t="n">
-        <v>431</v>
-      </c>
-      <c r="B433" t="n">
-        <v>2.238</v>
-      </c>
-      <c r="C433" t="n">
-        <v>2.239</v>
-      </c>
-      <c r="D433" t="n">
-        <v>2.239</v>
-      </c>
-      <c r="E433" t="n">
-        <v>2.231</v>
-      </c>
-      <c r="F433" t="n">
-        <v>1000234</v>
-      </c>
-      <c r="G433" t="n">
-        <v>-32549075.57524642</v>
-      </c>
-      <c r="H433" t="n">
-        <v>2</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
-      <c r="L433" t="n">
-        <v>1</v>
-      </c>
-      <c r="M433" t="inlineStr"/>
-    </row>
-    <row r="434">
-      <c r="A434" s="1" t="n">
-        <v>432</v>
-      </c>
-      <c r="B434" t="n">
-        <v>2.239</v>
-      </c>
-      <c r="C434" t="n">
-        <v>2.239</v>
-      </c>
-      <c r="D434" t="n">
-        <v>2.239</v>
-      </c>
-      <c r="E434" t="n">
-        <v>2.239</v>
-      </c>
-      <c r="F434" t="n">
-        <v>7976.4072</v>
-      </c>
-      <c r="G434" t="n">
-        <v>-32549075.57524642</v>
-      </c>
-      <c r="H434" t="n">
-        <v>2</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
-      <c r="L434" t="n">
-        <v>1</v>
-      </c>
-      <c r="M434" t="inlineStr"/>
-    </row>
-    <row r="435">
-      <c r="A435" s="1" t="n">
-        <v>433</v>
-      </c>
-      <c r="B435" t="n">
-        <v>2.231</v>
-      </c>
-      <c r="C435" t="n">
-        <v>2.231</v>
-      </c>
-      <c r="D435" t="n">
-        <v>2.231</v>
-      </c>
-      <c r="E435" t="n">
-        <v>2.231</v>
-      </c>
-      <c r="F435" t="n">
-        <v>14597.9701</v>
-      </c>
-      <c r="G435" t="n">
-        <v>-32563673.54534642</v>
-      </c>
-      <c r="H435" t="n">
-        <v>2</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
-      <c r="L435" t="n">
-        <v>1</v>
-      </c>
-      <c r="M435" t="inlineStr"/>
-    </row>
-    <row r="436">
-      <c r="A436" s="1" t="n">
-        <v>434</v>
-      </c>
-      <c r="B436" t="n">
-        <v>2.231</v>
-      </c>
-      <c r="C436" t="n">
-        <v>2.231</v>
-      </c>
-      <c r="D436" t="n">
-        <v>2.231</v>
-      </c>
-      <c r="E436" t="n">
-        <v>2.231</v>
-      </c>
-      <c r="F436" t="n">
-        <v>58131.2714</v>
-      </c>
-      <c r="G436" t="n">
-        <v>-32563673.54534642</v>
-      </c>
-      <c r="H436" t="n">
-        <v>2</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
-      <c r="L436" t="n">
-        <v>1</v>
-      </c>
-      <c r="M436" t="inlineStr"/>
-    </row>
-    <row r="437">
-      <c r="A437" s="1" t="n">
-        <v>435</v>
-      </c>
-      <c r="B437" t="n">
-        <v>2.239</v>
-      </c>
-      <c r="C437" t="n">
-        <v>2.239</v>
-      </c>
-      <c r="D437" t="n">
-        <v>2.239</v>
-      </c>
-      <c r="E437" t="n">
-        <v>2.239</v>
-      </c>
-      <c r="F437" t="n">
-        <v>218900.7004</v>
-      </c>
-      <c r="G437" t="n">
-        <v>-32344772.84494643</v>
-      </c>
-      <c r="H437" t="n">
-        <v>2</v>
-      </c>
-      <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
-      <c r="L437" t="n">
-        <v>1</v>
-      </c>
-      <c r="M437" t="inlineStr"/>
-    </row>
-    <row r="438">
-      <c r="A438" s="1" t="n">
-        <v>436</v>
-      </c>
-      <c r="B438" t="n">
-        <v>2.239</v>
-      </c>
-      <c r="C438" t="n">
-        <v>2.202</v>
-      </c>
-      <c r="D438" t="n">
-        <v>2.239</v>
-      </c>
-      <c r="E438" t="n">
-        <v>2.202</v>
-      </c>
-      <c r="F438" t="n">
-        <v>2393466.2322</v>
-      </c>
-      <c r="G438" t="n">
-        <v>-34738239.07714643</v>
-      </c>
-      <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
-      <c r="L438" t="n">
-        <v>1</v>
-      </c>
-      <c r="M438" t="inlineStr"/>
-    </row>
-    <row r="439">
-      <c r="A439" s="1" t="n">
-        <v>437</v>
-      </c>
-      <c r="B439" t="n">
-        <v>2.239</v>
-      </c>
-      <c r="C439" t="n">
-        <v>2.239</v>
-      </c>
-      <c r="D439" t="n">
-        <v>2.239</v>
-      </c>
-      <c r="E439" t="n">
-        <v>2.239</v>
-      </c>
-      <c r="F439" t="n">
-        <v>1063484.9544</v>
-      </c>
-      <c r="G439" t="n">
-        <v>-33674754.12274642</v>
-      </c>
-      <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
-      <c r="L439" t="n">
-        <v>1</v>
-      </c>
-      <c r="M439" t="inlineStr"/>
-    </row>
-    <row r="440">
-      <c r="A440" s="1" t="n">
-        <v>438</v>
-      </c>
-      <c r="B440" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="C440" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="D440" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="E440" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="F440" t="n">
-        <v>224</v>
-      </c>
-      <c r="G440" t="n">
-        <v>-33674530.12274642</v>
-      </c>
-      <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
-      <c r="L440" t="n">
-        <v>1</v>
-      </c>
-      <c r="M440" t="inlineStr"/>
-    </row>
-    <row r="441">
-      <c r="A441" s="1" t="n">
-        <v>439</v>
-      </c>
-      <c r="B441" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="C441" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="D441" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="E441" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="F441" t="n">
-        <v>98497.3548</v>
-      </c>
-      <c r="G441" t="n">
-        <v>-33674530.12274642</v>
-      </c>
-      <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
-      <c r="L441" t="n">
-        <v>1</v>
-      </c>
-      <c r="M441" t="inlineStr"/>
-    </row>
-    <row r="442">
-      <c r="A442" s="1" t="n">
-        <v>440</v>
-      </c>
-      <c r="B442" t="n">
-        <v>2.238</v>
-      </c>
-      <c r="C442" t="n">
-        <v>2.239</v>
-      </c>
-      <c r="D442" t="n">
-        <v>2.239</v>
-      </c>
-      <c r="E442" t="n">
-        <v>2.238</v>
-      </c>
-      <c r="F442" t="n">
-        <v>1782847.9894</v>
-      </c>
-      <c r="G442" t="n">
-        <v>-35457378.11214642</v>
-      </c>
-      <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
-      <c r="L442" t="n">
-        <v>1</v>
-      </c>
-      <c r="M442" t="inlineStr"/>
-    </row>
-    <row r="443">
-      <c r="A443" s="1" t="n">
-        <v>441</v>
-      </c>
-      <c r="B443" t="n">
-        <v>2.239</v>
-      </c>
-      <c r="C443" t="n">
-        <v>2.249</v>
-      </c>
-      <c r="D443" t="n">
-        <v>2.249</v>
-      </c>
-      <c r="E443" t="n">
-        <v>2.239</v>
-      </c>
-      <c r="F443" t="n">
-        <v>1280178.6285</v>
-      </c>
-      <c r="G443" t="n">
-        <v>-34177199.48364642</v>
-      </c>
-      <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
-      <c r="L443" t="n">
-        <v>1</v>
-      </c>
-      <c r="M443" t="inlineStr"/>
-    </row>
-    <row r="444">
-      <c r="A444" s="1" t="n">
-        <v>442</v>
-      </c>
-      <c r="B444" t="n">
-        <v>2.249</v>
-      </c>
-      <c r="C444" t="n">
-        <v>2.258</v>
-      </c>
-      <c r="D444" t="n">
-        <v>2.258</v>
-      </c>
-      <c r="E444" t="n">
-        <v>2.249</v>
-      </c>
-      <c r="F444" t="n">
-        <v>386171.9939</v>
-      </c>
-      <c r="G444" t="n">
-        <v>-33791027.48974642</v>
-      </c>
-      <c r="H444" t="n">
-        <v>0</v>
-      </c>
-      <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
-      <c r="L444" t="n">
-        <v>1</v>
-      </c>
-      <c r="M444" t="inlineStr"/>
-    </row>
-    <row r="445">
-      <c r="A445" s="1" t="n">
-        <v>443</v>
-      </c>
-      <c r="B445" t="n">
-        <v>2.249</v>
-      </c>
-      <c r="C445" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="D445" t="n">
-        <v>2.249</v>
-      </c>
-      <c r="E445" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="F445" t="n">
-        <v>1050205.93</v>
-      </c>
-      <c r="G445" t="n">
-        <v>-34841233.41974642</v>
-      </c>
-      <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
-      <c r="L445" t="n">
-        <v>1</v>
-      </c>
-      <c r="M445" t="inlineStr"/>
-    </row>
-    <row r="446">
-      <c r="A446" s="1" t="n">
-        <v>444</v>
-      </c>
-      <c r="B446" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="C446" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="D446" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="E446" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="F446" t="n">
-        <v>40963.5093</v>
-      </c>
-      <c r="G446" t="n">
-        <v>-34841233.41974642</v>
-      </c>
-      <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
-      <c r="L446" t="n">
-        <v>1</v>
-      </c>
-      <c r="M446" t="inlineStr"/>
-    </row>
-    <row r="447">
-      <c r="A447" s="1" t="n">
-        <v>445</v>
-      </c>
-      <c r="B447" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="C447" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="D447" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="E447" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="F447" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G447" t="n">
-        <v>-34841233.41974642</v>
-      </c>
-      <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
-      <c r="L447" t="n">
-        <v>1</v>
-      </c>
-      <c r="M447" t="inlineStr"/>
-    </row>
-    <row r="448">
-      <c r="A448" s="1" t="n">
-        <v>446</v>
-      </c>
-      <c r="B448" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="C448" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="D448" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="E448" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="F448" t="n">
-        <v>500</v>
-      </c>
-      <c r="G448" t="n">
-        <v>-34841733.41974642</v>
-      </c>
-      <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
-      <c r="L448" t="n">
-        <v>1</v>
-      </c>
-      <c r="M448" t="inlineStr"/>
-    </row>
-    <row r="449">
-      <c r="A449" s="1" t="n">
-        <v>447</v>
-      </c>
-      <c r="B449" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="C449" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="D449" t="n">
-        <v>2.254</v>
-      </c>
-      <c r="E449" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="F449" t="n">
-        <v>103892.8344</v>
-      </c>
-      <c r="G449" t="n">
-        <v>-34737840.58534642</v>
-      </c>
-      <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
-      <c r="L449" t="n">
-        <v>1</v>
-      </c>
-      <c r="M449" t="inlineStr"/>
-    </row>
-    <row r="450">
-      <c r="A450" s="1" t="n">
-        <v>448</v>
-      </c>
-      <c r="B450" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="C450" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="D450" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="E450" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="F450" t="n">
-        <v>1586968.2154</v>
-      </c>
-      <c r="G450" t="n">
-        <v>-34737840.58534642</v>
-      </c>
-      <c r="H450" t="n">
-        <v>0</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
-      <c r="L450" t="n">
-        <v>1</v>
-      </c>
-      <c r="M450" t="inlineStr"/>
-    </row>
-    <row r="451">
-      <c r="A451" s="1" t="n">
-        <v>449</v>
-      </c>
-      <c r="B451" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="C451" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="D451" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="E451" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="F451" t="n">
-        <v>53296.1774</v>
-      </c>
-      <c r="G451" t="n">
-        <v>-34737840.58534642</v>
-      </c>
-      <c r="H451" t="n">
-        <v>0</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
-      <c r="L451" t="n">
-        <v>1</v>
-      </c>
-      <c r="M451" t="inlineStr"/>
-    </row>
-    <row r="452">
-      <c r="A452" s="1" t="n">
-        <v>450</v>
-      </c>
-      <c r="B452" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="C452" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="D452" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="E452" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="F452" t="n">
-        <v>444</v>
-      </c>
-      <c r="G452" t="n">
-        <v>-34737396.58534642</v>
-      </c>
-      <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
-      <c r="L452" t="n">
-        <v>1</v>
-      </c>
-      <c r="M452" t="inlineStr"/>
-    </row>
-    <row r="453">
-      <c r="A453" s="1" t="n">
-        <v>451</v>
-      </c>
-      <c r="B453" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="C453" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="D453" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="E453" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="F453" t="n">
-        <v>1487369.453</v>
-      </c>
-      <c r="G453" t="n">
-        <v>-33250027.13234642</v>
-      </c>
-      <c r="H453" t="n">
-        <v>0</v>
-      </c>
-      <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
-      <c r="L453" t="n">
-        <v>1</v>
-      </c>
-      <c r="M453" t="inlineStr"/>
-    </row>
-    <row r="454">
-      <c r="A454" s="1" t="n">
-        <v>452</v>
-      </c>
-      <c r="B454" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="C454" t="n">
-        <v>2.287</v>
-      </c>
-      <c r="D454" t="n">
-        <v>2.287</v>
-      </c>
-      <c r="E454" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="F454" t="n">
-        <v>3346009.0276</v>
-      </c>
-      <c r="G454" t="n">
-        <v>-29904018.10474642</v>
-      </c>
-      <c r="H454" t="n">
-        <v>0</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
-      <c r="L454" t="n">
-        <v>1</v>
-      </c>
-      <c r="M454" t="inlineStr"/>
-    </row>
-    <row r="455">
-      <c r="A455" s="1" t="n">
-        <v>453</v>
-      </c>
-      <c r="B455" t="n">
-        <v>2.287</v>
-      </c>
-      <c r="C455" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="D455" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="E455" t="n">
-        <v>2.287</v>
-      </c>
-      <c r="F455" t="n">
-        <v>94264.0885</v>
-      </c>
-      <c r="G455" t="n">
-        <v>-29809754.01624642</v>
-      </c>
-      <c r="H455" t="n">
-        <v>0</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
-      <c r="L455" t="n">
-        <v>1</v>
-      </c>
-      <c r="M455" t="inlineStr"/>
-    </row>
-    <row r="456">
-      <c r="A456" s="1" t="n">
-        <v>454</v>
-      </c>
-      <c r="B456" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="C456" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="D456" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="E456" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="F456" t="n">
-        <v>96563.231</v>
-      </c>
-      <c r="G456" t="n">
-        <v>-29809754.01624642</v>
-      </c>
-      <c r="H456" t="n">
-        <v>0</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
-      <c r="L456" t="n">
-        <v>1</v>
-      </c>
-      <c r="M456" t="inlineStr"/>
-    </row>
-    <row r="457">
-      <c r="A457" s="1" t="n">
-        <v>455</v>
-      </c>
-      <c r="B457" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="C457" t="n">
-        <v>2.322</v>
-      </c>
-      <c r="D457" t="n">
-        <v>2.322</v>
-      </c>
-      <c r="E457" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="F457" t="n">
-        <v>891382.0919317829</v>
-      </c>
-      <c r="G457" t="n">
-        <v>-28918371.92431464</v>
-      </c>
-      <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
-      <c r="L457" t="n">
-        <v>1</v>
-      </c>
-      <c r="M457" t="inlineStr"/>
-    </row>
-    <row r="458">
-      <c r="A458" s="1" t="n">
-        <v>456</v>
-      </c>
-      <c r="B458" t="n">
-        <v>2.321</v>
-      </c>
-      <c r="C458" t="n">
-        <v>2.331</v>
-      </c>
-      <c r="D458" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="E458" t="n">
-        <v>2.321</v>
-      </c>
-      <c r="F458" t="n">
-        <v>3857630.881785598</v>
-      </c>
-      <c r="G458" t="n">
-        <v>-25060741.04252904</v>
-      </c>
-      <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
-      <c r="L458" t="n">
-        <v>1</v>
-      </c>
-      <c r="M458" t="inlineStr"/>
-    </row>
-    <row r="459">
-      <c r="A459" s="1" t="n">
-        <v>457</v>
-      </c>
-      <c r="B459" t="n">
-        <v>2.331</v>
-      </c>
-      <c r="C459" t="n">
-        <v>2.354</v>
-      </c>
-      <c r="D459" t="n">
-        <v>2.356</v>
-      </c>
-      <c r="E459" t="n">
-        <v>2.331</v>
-      </c>
-      <c r="F459" t="n">
-        <v>2363840.540882619</v>
-      </c>
-      <c r="G459" t="n">
-        <v>-22696900.50164642</v>
-      </c>
-      <c r="H459" t="n">
-        <v>0</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
-      <c r="L459" t="n">
-        <v>1</v>
-      </c>
-      <c r="M459" t="inlineStr"/>
-    </row>
-    <row r="460">
-      <c r="A460" s="1" t="n">
-        <v>458</v>
-      </c>
-      <c r="B460" t="n">
-        <v>2.354</v>
-      </c>
-      <c r="C460" t="n">
-        <v>2.321</v>
-      </c>
-      <c r="D460" t="n">
-        <v>2.369</v>
-      </c>
-      <c r="E460" t="n">
-        <v>2.321</v>
-      </c>
-      <c r="F460" t="n">
-        <v>3931069.1095</v>
-      </c>
-      <c r="G460" t="n">
-        <v>-26627969.61114642</v>
-      </c>
-      <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
-      <c r="L460" t="n">
-        <v>1</v>
-      </c>
-      <c r="M460" t="inlineStr"/>
-    </row>
-    <row r="461">
-      <c r="A461" s="1" t="n">
-        <v>459</v>
-      </c>
-      <c r="B461" t="n">
-        <v>2.368</v>
-      </c>
-      <c r="C461" t="n">
-        <v>2.331</v>
-      </c>
-      <c r="D461" t="n">
-        <v>2.368</v>
-      </c>
-      <c r="E461" t="n">
-        <v>2.331</v>
-      </c>
-      <c r="F461" t="n">
-        <v>157552.5946</v>
-      </c>
-      <c r="G461" t="n">
-        <v>-26470417.01654642</v>
-      </c>
-      <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
-      <c r="L461" t="n">
-        <v>1</v>
-      </c>
-      <c r="M461" t="inlineStr"/>
-    </row>
-    <row r="462">
-      <c r="A462" s="1" t="n">
-        <v>460</v>
-      </c>
-      <c r="B462" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="C462" t="n">
-        <v>2.331</v>
-      </c>
-      <c r="D462" t="n">
-        <v>2.331</v>
-      </c>
-      <c r="E462" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="F462" t="n">
-        <v>333118.0873</v>
-      </c>
-      <c r="G462" t="n">
-        <v>-26470417.01654642</v>
-      </c>
-      <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
-      <c r="L462" t="n">
-        <v>1</v>
-      </c>
-      <c r="M462" t="inlineStr"/>
-    </row>
-    <row r="463">
-      <c r="A463" s="1" t="n">
-        <v>461</v>
-      </c>
-      <c r="B463" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="C463" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="D463" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="E463" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="F463" t="n">
-        <v>1015278.767601931</v>
-      </c>
-      <c r="G463" t="n">
-        <v>-27485695.78414835</v>
-      </c>
-      <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
-      <c r="L463" t="n">
-        <v>1</v>
-      </c>
-      <c r="M463" t="inlineStr"/>
-    </row>
-    <row r="464">
-      <c r="A464" s="1" t="n">
-        <v>462</v>
-      </c>
-      <c r="B464" t="n">
-        <v>2.309</v>
-      </c>
-      <c r="C464" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="D464" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="E464" t="n">
-        <v>2.309</v>
-      </c>
-      <c r="F464" t="n">
-        <v>1666836.79759807</v>
-      </c>
-      <c r="G464" t="n">
-        <v>-27485695.78414835</v>
-      </c>
-      <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
-      <c r="L464" t="n">
-        <v>1</v>
-      </c>
-      <c r="M464" t="inlineStr"/>
-    </row>
-    <row r="465">
-      <c r="A465" s="1" t="n">
-        <v>463</v>
-      </c>
-      <c r="B465" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="C465" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="D465" t="n">
-        <v>2.367</v>
-      </c>
-      <c r="E465" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="F465" t="n">
-        <v>834460.0468</v>
-      </c>
-      <c r="G465" t="n">
-        <v>-26651235.73734835</v>
-      </c>
-      <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
-      <c r="L465" t="n">
-        <v>1</v>
-      </c>
-      <c r="M465" t="inlineStr"/>
-    </row>
-    <row r="466">
-      <c r="A466" s="1" t="n">
-        <v>464</v>
-      </c>
-      <c r="B466" t="n">
-        <v>2.349</v>
-      </c>
-      <c r="C466" t="n">
-        <v>2.349</v>
-      </c>
-      <c r="D466" t="n">
-        <v>2.349</v>
-      </c>
-      <c r="E466" t="n">
-        <v>2.349</v>
-      </c>
-      <c r="F466" t="n">
-        <v>351.1103</v>
-      </c>
-      <c r="G466" t="n">
-        <v>-26651586.84764835</v>
-      </c>
-      <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
-      <c r="L466" t="n">
-        <v>1</v>
-      </c>
-      <c r="M466" t="inlineStr"/>
-    </row>
-    <row r="467">
-      <c r="A467" s="1" t="n">
-        <v>465</v>
-      </c>
-      <c r="B467" t="n">
-        <v>2.349</v>
-      </c>
-      <c r="C467" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="D467" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="E467" t="n">
-        <v>2.349</v>
-      </c>
-      <c r="F467" t="n">
-        <v>71929.4281</v>
-      </c>
-      <c r="G467" t="n">
-        <v>-26579657.41954835</v>
-      </c>
-      <c r="H467" t="n">
-        <v>0</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
-      <c r="L467" t="n">
-        <v>1</v>
-      </c>
-      <c r="M467" t="inlineStr"/>
-    </row>
-    <row r="468">
-      <c r="A468" s="1" t="n">
-        <v>466</v>
-      </c>
-      <c r="B468" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="C468" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="D468" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="E468" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="F468" t="n">
-        <v>691080.6529</v>
-      </c>
-      <c r="G468" t="n">
-        <v>-26579657.41954835</v>
-      </c>
-      <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
-      <c r="L468" t="n">
-        <v>1</v>
-      </c>
-      <c r="M468" t="inlineStr"/>
-    </row>
-    <row r="469">
-      <c r="A469" s="1" t="n">
-        <v>467</v>
-      </c>
-      <c r="B469" t="n">
-        <v>2.331</v>
-      </c>
-      <c r="C469" t="n">
-        <v>2.318</v>
-      </c>
-      <c r="D469" t="n">
-        <v>2.348</v>
-      </c>
-      <c r="E469" t="n">
-        <v>2.318</v>
-      </c>
-      <c r="F469" t="n">
-        <v>22987.2371</v>
-      </c>
-      <c r="G469" t="n">
-        <v>-26602644.65664835</v>
-      </c>
-      <c r="H469" t="n">
-        <v>0</v>
-      </c>
-      <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
-      <c r="L469" t="n">
-        <v>1</v>
-      </c>
-      <c r="M469" t="inlineStr"/>
-    </row>
-    <row r="470">
-      <c r="A470" s="1" t="n">
-        <v>468</v>
-      </c>
-      <c r="B470" t="n">
-        <v>2.318</v>
-      </c>
-      <c r="C470" t="n">
-        <v>2.318</v>
-      </c>
-      <c r="D470" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="E470" t="n">
-        <v>2.318</v>
-      </c>
-      <c r="F470" t="n">
-        <v>173290.3168</v>
-      </c>
-      <c r="G470" t="n">
-        <v>-26602644.65664835</v>
-      </c>
-      <c r="H470" t="n">
-        <v>0</v>
-      </c>
-      <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
-      <c r="L470" t="n">
-        <v>1</v>
-      </c>
-      <c r="M470" t="inlineStr"/>
-    </row>
-    <row r="471">
-      <c r="A471" s="1" t="n">
-        <v>469</v>
-      </c>
-      <c r="B471" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="C471" t="n">
-        <v>2.318</v>
-      </c>
-      <c r="D471" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="E471" t="n">
-        <v>2.318</v>
-      </c>
-      <c r="F471" t="n">
-        <v>168583.5592</v>
-      </c>
-      <c r="G471" t="n">
-        <v>-26602644.65664835</v>
-      </c>
-      <c r="H471" t="n">
-        <v>0</v>
-      </c>
-      <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
-      <c r="L471" t="n">
-        <v>1</v>
-      </c>
-      <c r="M471" t="inlineStr"/>
-    </row>
-    <row r="472">
-      <c r="A472" s="1" t="n">
-        <v>470</v>
-      </c>
-      <c r="B472" t="n">
-        <v>2.318</v>
-      </c>
-      <c r="C472" t="n">
-        <v>2.339</v>
-      </c>
-      <c r="D472" t="n">
-        <v>2.339</v>
-      </c>
-      <c r="E472" t="n">
-        <v>2.301</v>
-      </c>
-      <c r="F472" t="n">
-        <v>2751.9197</v>
-      </c>
-      <c r="G472" t="n">
-        <v>-26599892.73694835</v>
-      </c>
-      <c r="H472" t="n">
-        <v>0</v>
-      </c>
-      <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
-      <c r="L472" t="n">
-        <v>1</v>
-      </c>
-      <c r="M472" t="inlineStr"/>
-    </row>
-    <row r="473">
-      <c r="A473" s="1" t="n">
-        <v>471</v>
-      </c>
-      <c r="B473" t="n">
-        <v>2.311</v>
-      </c>
-      <c r="C473" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="D473" t="n">
-        <v>2.338</v>
-      </c>
-      <c r="E473" t="n">
-        <v>2.301</v>
-      </c>
-      <c r="F473" t="n">
-        <v>273483.0752</v>
-      </c>
-      <c r="G473" t="n">
-        <v>-26873375.81214835</v>
-      </c>
-      <c r="H473" t="n">
-        <v>0</v>
-      </c>
-      <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
-      <c r="L473" t="n">
-        <v>1</v>
-      </c>
-      <c r="M473" t="inlineStr"/>
-    </row>
-    <row r="474">
-      <c r="A474" s="1" t="n">
-        <v>472</v>
-      </c>
-      <c r="B474" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="C474" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="D474" t="n">
-        <v>2.322</v>
-      </c>
-      <c r="E474" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="F474" t="n">
-        <v>101971.4158</v>
-      </c>
-      <c r="G474" t="n">
-        <v>-26771404.39634835</v>
-      </c>
-      <c r="H474" t="n">
-        <v>0</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
-      <c r="L474" t="n">
-        <v>1</v>
-      </c>
-      <c r="M474" t="inlineStr"/>
-    </row>
-    <row r="475">
-      <c r="A475" s="1" t="n">
-        <v>473</v>
-      </c>
-      <c r="B475" t="n">
-        <v>2.338</v>
-      </c>
-      <c r="C475" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="D475" t="n">
-        <v>2.338</v>
-      </c>
-      <c r="E475" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="F475" t="n">
-        <v>842982.7848</v>
-      </c>
-      <c r="G475" t="n">
-        <v>-27614387.18114835</v>
-      </c>
-      <c r="H475" t="n">
-        <v>0</v>
-      </c>
-      <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
-      <c r="L475" t="n">
-        <v>1</v>
-      </c>
-      <c r="M475" t="inlineStr"/>
-    </row>
-    <row r="476">
-      <c r="A476" s="1" t="n">
-        <v>474</v>
-      </c>
-      <c r="B476" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="C476" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="D476" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="E476" t="n">
-        <v>2.271</v>
-      </c>
-      <c r="F476" t="n">
-        <v>4108598.7405</v>
-      </c>
-      <c r="G476" t="n">
-        <v>-23505788.44064835</v>
-      </c>
-      <c r="H476" t="n">
-        <v>0</v>
-      </c>
-      <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
-      <c r="L476" t="n">
-        <v>1</v>
-      </c>
-      <c r="M476" t="inlineStr"/>
-    </row>
-    <row r="477">
-      <c r="A477" s="1" t="n">
-        <v>475</v>
-      </c>
-      <c r="B477" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="C477" t="n">
-        <v>2.312</v>
-      </c>
-      <c r="D477" t="n">
-        <v>2.312</v>
-      </c>
-      <c r="E477" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="F477" t="n">
-        <v>323435.7453</v>
-      </c>
-      <c r="G477" t="n">
-        <v>-23182352.69534835</v>
-      </c>
-      <c r="H477" t="n">
-        <v>0</v>
-      </c>
-      <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
-      <c r="L477" t="n">
-        <v>1</v>
-      </c>
-      <c r="M477" t="inlineStr"/>
-    </row>
-    <row r="478">
-      <c r="A478" s="1" t="n">
-        <v>476</v>
-      </c>
-      <c r="B478" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="C478" t="n">
-        <v>2.398</v>
-      </c>
-      <c r="D478" t="n">
-        <v>2.398</v>
-      </c>
-      <c r="E478" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="F478" t="n">
-        <v>8461941.091700001</v>
-      </c>
-      <c r="G478" t="n">
-        <v>-14720411.60364835</v>
-      </c>
-      <c r="H478" t="n">
-        <v>0</v>
-      </c>
-      <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
-      <c r="L478" t="n">
-        <v>1</v>
-      </c>
-      <c r="M478" t="inlineStr"/>
-    </row>
-    <row r="479">
-      <c r="A479" s="1" t="n">
-        <v>477</v>
-      </c>
-      <c r="B479" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="C479" t="n">
-        <v>2.397</v>
-      </c>
-      <c r="D479" t="n">
-        <v>2.397</v>
-      </c>
-      <c r="E479" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="F479" t="n">
-        <v>540570.2246</v>
-      </c>
-      <c r="G479" t="n">
-        <v>-15260981.82824835</v>
-      </c>
-      <c r="H479" t="n">
-        <v>0</v>
-      </c>
-      <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
-      <c r="L479" t="n">
-        <v>1</v>
-      </c>
-      <c r="M479" t="inlineStr"/>
-    </row>
-    <row r="480">
-      <c r="A480" s="1" t="n">
-        <v>478</v>
-      </c>
-      <c r="B480" t="n">
-        <v>2.396</v>
-      </c>
-      <c r="C480" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="D480" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="E480" t="n">
-        <v>2.396</v>
-      </c>
-      <c r="F480" t="n">
-        <v>5781183.531</v>
-      </c>
-      <c r="G480" t="n">
-        <v>-9479798.297248352</v>
-      </c>
-      <c r="H480" t="n">
-        <v>0</v>
-      </c>
-      <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
-      <c r="L480" t="n">
-        <v>1</v>
-      </c>
-      <c r="M480" t="inlineStr"/>
-    </row>
-    <row r="481">
-      <c r="A481" s="1" t="n">
-        <v>479</v>
-      </c>
-      <c r="B481" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="C481" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="D481" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="E481" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="F481" t="n">
-        <v>560642.7713</v>
-      </c>
-      <c r="G481" t="n">
-        <v>-8919155.525948353</v>
-      </c>
-      <c r="H481" t="n">
-        <v>0</v>
-      </c>
-      <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
-      <c r="L481" t="n">
-        <v>1</v>
-      </c>
-      <c r="M481" t="inlineStr"/>
-    </row>
-    <row r="482">
-      <c r="A482" s="1" t="n">
-        <v>480</v>
-      </c>
-      <c r="B482" t="n">
-        <v>2.425</v>
-      </c>
-      <c r="C482" t="n">
-        <v>2.415</v>
-      </c>
-      <c r="D482" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="E482" t="n">
-        <v>2.415</v>
-      </c>
-      <c r="F482" t="n">
-        <v>859930.3903453416</v>
-      </c>
-      <c r="G482" t="n">
-        <v>-9779085.916293696</v>
-      </c>
-      <c r="H482" t="n">
-        <v>0</v>
-      </c>
-      <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
-      <c r="L482" t="n">
-        <v>1</v>
-      </c>
-      <c r="M482" t="inlineStr"/>
-    </row>
-    <row r="483">
-      <c r="A483" s="1" t="n">
-        <v>481</v>
-      </c>
-      <c r="B483" t="n">
-        <v>2.415</v>
-      </c>
-      <c r="C483" t="n">
-        <v>2.415</v>
-      </c>
-      <c r="D483" t="n">
-        <v>2.415</v>
-      </c>
-      <c r="E483" t="n">
-        <v>2.415</v>
-      </c>
-      <c r="F483" t="n">
-        <v>122642.9743</v>
-      </c>
-      <c r="G483" t="n">
-        <v>-9779085.916293696</v>
-      </c>
-      <c r="H483" t="n">
-        <v>0</v>
-      </c>
-      <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
-      <c r="L483" t="n">
-        <v>1</v>
-      </c>
-      <c r="M483" t="inlineStr"/>
-    </row>
-    <row r="484">
-      <c r="A484" s="1" t="n">
-        <v>482</v>
-      </c>
-      <c r="B484" t="n">
-        <v>2.381</v>
-      </c>
-      <c r="C484" t="n">
-        <v>2.367</v>
-      </c>
-      <c r="D484" t="n">
-        <v>2.381</v>
-      </c>
-      <c r="E484" t="n">
-        <v>2.366</v>
-      </c>
-      <c r="F484" t="n">
-        <v>2274803.3154</v>
-      </c>
-      <c r="G484" t="n">
-        <v>-12053889.2316937</v>
-      </c>
-      <c r="H484" t="n">
-        <v>0</v>
-      </c>
-      <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
-      <c r="L484" t="n">
-        <v>1</v>
-      </c>
-      <c r="M484" t="inlineStr"/>
-    </row>
-    <row r="485">
-      <c r="A485" s="1" t="n">
-        <v>483</v>
-      </c>
-      <c r="B485" t="n">
-        <v>2.367</v>
-      </c>
-      <c r="C485" t="n">
-        <v>2.367</v>
-      </c>
-      <c r="D485" t="n">
-        <v>2.367</v>
-      </c>
-      <c r="E485" t="n">
-        <v>2.367</v>
-      </c>
-      <c r="F485" t="n">
-        <v>337472.7353</v>
-      </c>
-      <c r="G485" t="n">
-        <v>-12053889.2316937</v>
-      </c>
-      <c r="H485" t="n">
-        <v>0</v>
-      </c>
-      <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
-      <c r="L485" t="n">
-        <v>1</v>
-      </c>
-      <c r="M485" t="inlineStr"/>
-    </row>
-    <row r="486">
-      <c r="A486" s="1" t="n">
-        <v>484</v>
-      </c>
-      <c r="B486" t="n">
-        <v>2.368</v>
-      </c>
-      <c r="C486" t="n">
-        <v>2.381</v>
-      </c>
-      <c r="D486" t="n">
-        <v>2.381</v>
-      </c>
-      <c r="E486" t="n">
-        <v>2.368</v>
-      </c>
-      <c r="F486" t="n">
-        <v>750741.1594</v>
-      </c>
-      <c r="G486" t="n">
-        <v>-11303148.0722937</v>
-      </c>
-      <c r="H486" t="n">
-        <v>0</v>
-      </c>
-      <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
-      <c r="L486" t="n">
-        <v>1</v>
-      </c>
-      <c r="M486" t="inlineStr"/>
-    </row>
-    <row r="487">
-      <c r="A487" s="1" t="n">
-        <v>485</v>
-      </c>
-      <c r="B487" t="n">
-        <v>2.381</v>
-      </c>
-      <c r="C487" t="n">
-        <v>2.381</v>
-      </c>
-      <c r="D487" t="n">
-        <v>2.399</v>
-      </c>
-      <c r="E487" t="n">
-        <v>2.381</v>
-      </c>
-      <c r="F487" t="n">
-        <v>120037.6443152147</v>
-      </c>
-      <c r="G487" t="n">
-        <v>-11303148.0722937</v>
-      </c>
-      <c r="H487" t="n">
-        <v>0</v>
-      </c>
-      <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
-      <c r="L487" t="n">
-        <v>1</v>
-      </c>
-      <c r="M487" t="inlineStr"/>
-    </row>
-    <row r="488">
-      <c r="A488" s="1" t="n">
-        <v>486</v>
-      </c>
-      <c r="B488" t="n">
-        <v>2.381</v>
-      </c>
-      <c r="C488" t="n">
-        <v>2.381</v>
-      </c>
-      <c r="D488" t="n">
-        <v>2.399</v>
-      </c>
-      <c r="E488" t="n">
-        <v>2.381</v>
-      </c>
-      <c r="F488" t="n">
-        <v>984508.3406999999</v>
-      </c>
-      <c r="G488" t="n">
-        <v>-11303148.0722937</v>
-      </c>
-      <c r="H488" t="n">
-        <v>0</v>
-      </c>
-      <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
-      <c r="L488" t="n">
-        <v>1</v>
-      </c>
-      <c r="M488" t="inlineStr"/>
-    </row>
-    <row r="489">
-      <c r="A489" s="1" t="n">
-        <v>487</v>
-      </c>
-      <c r="B489" t="n">
-        <v>2.381</v>
-      </c>
-      <c r="C489" t="n">
-        <v>2.415</v>
-      </c>
-      <c r="D489" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="E489" t="n">
-        <v>2.373</v>
-      </c>
-      <c r="F489" t="n">
-        <v>1951568.420139444</v>
-      </c>
-      <c r="G489" t="n">
-        <v>-9351579.652154252</v>
-      </c>
-      <c r="H489" t="n">
-        <v>0</v>
-      </c>
-      <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
-      <c r="L489" t="n">
-        <v>1</v>
-      </c>
-      <c r="M489" t="inlineStr"/>
-    </row>
-    <row r="490">
-      <c r="A490" s="1" t="n">
-        <v>488</v>
-      </c>
-      <c r="B490" t="n">
-        <v>2.415</v>
-      </c>
-      <c r="C490" t="n">
-        <v>2.415</v>
-      </c>
-      <c r="D490" t="n">
-        <v>2.415</v>
-      </c>
-      <c r="E490" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="F490" t="n">
-        <v>824077.7884</v>
-      </c>
-      <c r="G490" t="n">
-        <v>-9351579.652154252</v>
-      </c>
-      <c r="H490" t="n">
-        <v>0</v>
-      </c>
-      <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
-      <c r="L490" t="n">
-        <v>1</v>
-      </c>
+      <c r="L490" t="inlineStr"/>
       <c r="M490" t="inlineStr"/>
     </row>
     <row r="491">
@@ -17196,7 +17268,7 @@
         <v>-9878883.154099593</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -17229,7 +17301,7 @@
         <v>-4682001.154499593</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -17262,7 +17334,7 @@
         <v>-7684949.777399593</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -17295,7 +17367,7 @@
         <v>-7010484.32268699</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -17328,7 +17400,7 @@
         <v>-7495978.28518699</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -17361,7 +17433,7 @@
         <v>-1982144.39358699</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
